--- a/job_files/jobboard_info.xlsx
+++ b/job_files/jobboard_info.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jai\Documents\github\job_visitor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jai\Documents\github\job_visitor\job_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75020AEC-DD6A-472E-BA1A-C186C99D008D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26ED663A-C81D-49D6-957D-4866141E9C99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3001,7 +3001,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -3065,7 +3065,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" ht="405" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -3161,7 +3161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -3257,7 +3257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>

--- a/job_files/jobboard_info.xlsx
+++ b/job_files/jobboard_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jai\Documents\github\job_visitor\job_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26ED663A-C81D-49D6-957D-4866141E9C99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7FFCF2D-DDB2-49FE-AB52-081349DCE28D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="273">
   <si>
     <t>name</t>
   </si>
@@ -813,13 +813,72 @@
   </si>
   <si>
     <t>GAIN POWER: Directories, jobs, stories, resources, networking &amp; marketing for progressive nonprofits, Democratic campaigns, the Resistance movement,</t>
+  </si>
+  <si>
+    <t>The Pew Charitable Trusts is an independent non-profit, non-governmental organization, founded in 1948. With over US$6 billion in assets, its stated mission is to serve the public interest by "improving public policy, informing the public, and invigorating civic life</t>
+  </si>
+  <si>
+    <t>https://jobs-pct.icims.com/jobs/search?ss=1&amp;searchCategory=166515</t>
+  </si>
+  <si>
+    <t>Center for Popular Democracy</t>
+  </si>
+  <si>
+    <t>The Center for Popular Democracy is an American advocacy group that promotes progressive politics. CPD is a federation of groups that includes some of the old chapters of ACORN. The group's stated goal is to "envision and win an innovative pro-worker, pro-immigrant, racial and economic justice agenda."</t>
+  </si>
+  <si>
+    <t>https://www.populardemocracy.org/about/job-opportunities</t>
+  </si>
+  <si>
+    <t>Aspen Institute</t>
+  </si>
+  <si>
+    <t>https://www.aspeninstitute.org/careers/career-opportunities/</t>
+  </si>
+  <si>
+    <t>he Aspen Institute is a global nonprofit organization committed to realizing a free, just, and equitable society</t>
+  </si>
+  <si>
+    <t>Power Jobs</t>
+  </si>
+  <si>
+    <t>https://powerjobs.com/jobs/results/keyword/Data/Washington,+DC?radius=50</t>
+  </si>
+  <si>
+    <t>A career website for Washington DC professionals seeking jobs in defense, education, energy, finance, government, health care, non-profit &amp; technology.</t>
+  </si>
+  <si>
+    <t>Political Job Hunt</t>
+  </si>
+  <si>
+    <t>https://www.politicaljobhunt.com/jobs/search?q=Data&amp;l=&amp;lat=38.9071923&amp;long=-77.0368707&amp;d=
+https://www.politicaljobhunt.com/jobs/search?q=Research&amp;l=&amp;lat=38.9071923&amp;long=-77.0368707&amp;d=</t>
+  </si>
+  <si>
+    <t>the best place to start your search for a job that makes a real difference.
+After 15 years of running Political Wire -- and as a former policy adviser to a U.S. Senator and Governor -- I'm frequently asked for advice from people looking for jobs in politics and public affairs.
+How can I get a job on Capitol Hill? What's the best way to become a policy adviser? How do I work on a presidential campaign?</t>
+  </si>
+  <si>
+    <t>Roll Call</t>
+  </si>
+  <si>
+    <t>https://www.rcjobs.com/jobs/?keywords=&amp;keywords_cache=Research&amp;location=&amp;location_completion=&amp;location_type=&amp;location_text=&amp;location_autocomplete=true&amp;t731=217551
+https://www.rcjobs.com/jobs/?keywords=&amp;location=&amp;location_completion=&amp;location_type=&amp;location_text=&amp;location_autocomplete=true&amp;t731=217536
+https://www.rcjobs.com/jobs/?keywords=Evaluation&amp;keywords_cache=&amp;location=&amp;location_completion=&amp;location_type=&amp;location_text=&amp;location_autocomplete=true&amp;sort=start</t>
+  </si>
+  <si>
+    <t>CQ Roll Call provides essential intelligence and grassroots advocacy resources to take action. As the premier source of timely news, objective facts and analysis, and coverage of elections and the politics of legislation, we keep our fingers on the pulse of the legislative process and give our clients the tools they need to maximize their influence. We are the ultimate insider, and our unmatched network of relationships and expertise has powered the productivity of those who rely on us since 1945.</t>
+  </si>
+  <si>
+    <t>The Pew Charitable Trusts</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -831,14 +890,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -861,23 +912,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1156,11 +1202,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J68"/>
+  <dimension ref="A1:J74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1184,7 +1230,7 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -1283,7 +1329,7 @@
       <c r="C4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="1" t="s">
         <v>83</v>
       </c>
       <c r="E4" s="1">
@@ -1298,7 +1344,7 @@
       <c r="H4" s="1">
         <v>1</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="1">
         <v>2</v>
       </c>
       <c r="J4" s="1">
@@ -1792,7 +1838,7 @@
       <c r="B20" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -2048,7 +2094,7 @@
       <c r="B28" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="5" t="s">
         <v>193</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -2848,7 +2894,7 @@
       <c r="B53" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="5" t="s">
         <v>199</v>
       </c>
       <c r="D53" s="1" t="s">
@@ -2880,7 +2926,7 @@
       <c r="B54" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="5" t="s">
         <v>204</v>
       </c>
       <c r="D54" s="1" t="s">
@@ -2912,7 +2958,7 @@
       <c r="B55" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="5" t="s">
         <v>206</v>
       </c>
       <c r="D55" s="1" t="s">
@@ -2944,7 +2990,7 @@
       <c r="B56" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="5" t="s">
         <v>211</v>
       </c>
       <c r="D56" s="1" t="s">
@@ -2976,7 +3022,7 @@
       <c r="B57" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="5" t="s">
         <v>213</v>
       </c>
       <c r="D57" s="1" t="s">
@@ -3001,17 +3047,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="D58" s="6" t="s">
+      <c r="D58" s="1" t="s">
         <v>217</v>
       </c>
       <c r="E58" s="1">
@@ -3040,7 +3086,7 @@
       <c r="B59" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="5" t="s">
         <v>219</v>
       </c>
       <c r="D59" s="1" t="s">
@@ -3065,7 +3111,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="405" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -3075,7 +3121,7 @@
       <c r="C60" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D60" s="6" t="s">
+      <c r="D60" s="1" t="s">
         <v>223</v>
       </c>
       <c r="E60" s="1">
@@ -3161,7 +3207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -3171,7 +3217,7 @@
       <c r="C63" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="D63" s="6" t="s">
+      <c r="D63" s="1" t="s">
         <v>230</v>
       </c>
       <c r="E63" s="1">
@@ -3257,7 +3303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -3267,7 +3313,7 @@
       <c r="C66" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D66" s="6" t="s">
+      <c r="D66" s="1" t="s">
         <v>240</v>
       </c>
       <c r="E66" s="1">
@@ -3296,7 +3342,7 @@
       <c r="B67" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" s="5" t="s">
         <v>243</v>
       </c>
       <c r="D67" s="1" t="s">
@@ -3351,27 +3397,204 @@
       </c>
       <c r="J68" s="1" t="s">
         <v>248</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E69" s="1">
+        <v>20</v>
+      </c>
+      <c r="F69" s="1">
+        <v>0</v>
+      </c>
+      <c r="G69" s="1">
+        <v>1</v>
+      </c>
+      <c r="H69" s="1">
+        <v>1</v>
+      </c>
+      <c r="I69" s="1">
+        <v>2</v>
+      </c>
+      <c r="J69" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E70" s="1">
+        <v>20</v>
+      </c>
+      <c r="F70" s="1">
+        <v>0</v>
+      </c>
+      <c r="G70" s="1">
+        <v>1</v>
+      </c>
+      <c r="H70" s="1">
+        <v>1</v>
+      </c>
+      <c r="I70" s="1">
+        <v>2</v>
+      </c>
+      <c r="J70" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E71" s="1">
+        <v>20</v>
+      </c>
+      <c r="F71" s="1">
+        <v>0</v>
+      </c>
+      <c r="G71" s="1">
+        <v>1</v>
+      </c>
+      <c r="H71" s="1">
+        <v>1</v>
+      </c>
+      <c r="I71" s="1">
+        <v>2</v>
+      </c>
+      <c r="J71" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E72" s="1">
+        <v>10</v>
+      </c>
+      <c r="F72" s="1">
+        <v>1</v>
+      </c>
+      <c r="G72" s="1">
+        <v>0</v>
+      </c>
+      <c r="H72" s="1">
+        <v>1</v>
+      </c>
+      <c r="I72" s="1">
+        <v>2</v>
+      </c>
+      <c r="J72" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="E73" s="1">
+        <v>10</v>
+      </c>
+      <c r="F73" s="1">
+        <v>1</v>
+      </c>
+      <c r="G73" s="1">
+        <v>0</v>
+      </c>
+      <c r="H73" s="1">
+        <v>1</v>
+      </c>
+      <c r="I73" s="1">
+        <v>2</v>
+      </c>
+      <c r="J73" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E74" s="1">
+        <v>10</v>
+      </c>
+      <c r="F74" s="1">
+        <v>1</v>
+      </c>
+      <c r="G74" s="1">
+        <v>0</v>
+      </c>
+      <c r="H74" s="1">
+        <v>1</v>
+      </c>
+      <c r="I74" s="1">
+        <v>2</v>
+      </c>
+      <c r="J74" s="1">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:I43">
     <sortCondition ref="B2:B43"/>
   </sortState>
-  <hyperlinks>
-    <hyperlink ref="C28" r:id="rId1" location="results/5f7632188a269a919fd9419b?kw=&amp;loc=&amp;page_num=1" display="https://jobs.humentum.org/search/#results/5f7632188a269a919fd9419b?kw=&amp;loc=&amp;page_num=1" xr:uid="{D0E651AD-B273-4CF2-8D3C-C5DA26FCC538}"/>
-    <hyperlink ref="C53" r:id="rId2" location="accordion-Team1%20.item-1" xr:uid="{67BF7760-7E04-4F9E-8A97-F7806912E2CE}"/>
-    <hyperlink ref="C54" r:id="rId3" location="htivrt=jobs&amp;htidocid=IX48xdfelX9mKorAAAAAAA%3D%3D&amp;fpstate=tldetail" display="https://www.google.com/search?q=monitoring+and+evaluation+jobs+washington+dc&amp;rlz=1C1GCEA_enUS808US808&amp;oq=monitoring+and+evaluation+jobs+washington+dc&amp;aqs=chrome..69i57j69i60.7551j0j1&amp;sourceid=chrome&amp;ie=UTF-8&amp;ibp=htl;jobs&amp;sa=X&amp;ved=2ahUKEwiey-qryKjsAhVvCjQIHfYVBDkQiYsCKAJ6BAgMECg&amp;sxsrf=ALeKk02QhDrDaiK6sD-Uj4av3mY4GQAz2Q:1602282738861#htivrt=jobs&amp;htidocid=IX48xdfelX9mKorAAAAAAA%3D%3D&amp;fpstate=tldetail" xr:uid="{0D227F6C-0269-491E-A5F5-1BB7F0B4B62E}"/>
-    <hyperlink ref="C55" r:id="rId4" xr:uid="{0993C9FC-7C81-40A5-A793-2C92A38E212A}"/>
-    <hyperlink ref="C56" r:id="rId5" xr:uid="{DF3A7712-EB33-41F4-A9A8-5E8C419A46EC}"/>
-    <hyperlink ref="C57" r:id="rId6" xr:uid="{858C9EF6-A654-4443-8BB8-98B68F563FC5}"/>
-    <hyperlink ref="C58" r:id="rId7" xr:uid="{7ED5BB4F-9212-4BB8-8559-B26EF966E2F6}"/>
-    <hyperlink ref="C59" r:id="rId8" xr:uid="{B671ED10-B608-4A98-A849-9CDB9FA5AD19}"/>
-    <hyperlink ref="C67" r:id="rId9" location="countfellows" xr:uid="{F04204E1-D259-4184-8929-442685D8C5FB}"/>
-    <hyperlink ref="C29" r:id="rId10" xr:uid="{55A3CD5E-F4A3-4DC6-ADD3-FAC33635BAE4}"/>
-    <hyperlink ref="C38" r:id="rId11" xr:uid="{B3A63D60-BD10-45ED-A4CE-7897C8100B5E}"/>
-    <hyperlink ref="C39" r:id="rId12" xr:uid="{AA927503-97CC-45C6-AEF5-30A47475B18D}"/>
-    <hyperlink ref="C20" r:id="rId13" location="htivrt=jobs&amp;htidocid=AEiQPiGPhk9Vy7hrAAAAAA%3D%3D&amp;fpstate=tldetail" display="https://www.google.com/search?q=monitoring+and+evaluation+jobs+california&amp;rlz=1C1GCEA_enUS808US808&amp;oq=monitoring+and+evaluation+jobs+&amp;aqs=chrome.1.69i59l3j0l2j69i60l3.4212j0j7&amp;sourceid=chrome&amp;ie=UTF-8&amp;ibp=htl;jobs&amp;sa=X&amp;ved=2ahUKEwik1aLXyJHsAhXzKX0KHdw_BeIQiYsCKAJ6BAgMECg&amp;sxsrf=ALeKk00ClfBYhG4tgcqVblxWrjSO2OssmQ:1601492555974#htivrt=jobs&amp;htidocid=AEiQPiGPhk9Vy7hrAAAAAA%3D%3D&amp;fpstate=tldetail" xr:uid="{BF48C912-7A12-4ED0-A9A2-E630A199FD38}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/job_files/jobboard_info.xlsx
+++ b/job_files/jobboard_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jai\Documents\github\job_visitor\job_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7FFCF2D-DDB2-49FE-AB52-081349DCE28D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC8EECBE-83B9-4519-9500-56252C3DB994}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="297">
   <si>
     <t>name</t>
   </si>
@@ -872,6 +872,80 @@
   </si>
   <si>
     <t>The Pew Charitable Trusts</t>
+  </si>
+  <si>
+    <t>https://edforwarddc.org/about/join-team/</t>
+  </si>
+  <si>
+    <t>Education Forward DC</t>
+  </si>
+  <si>
+    <t>Education Forward DC launched in 2016 with input from community leaders, grantees, and partners to identify the best path forward to ensure that all students and families in Washington, DC have access to a high-quality, equitable public school.</t>
+  </si>
+  <si>
+    <t>https://jobs.lever.co/internationalbudget</t>
+  </si>
+  <si>
+    <t>International Budget Partnership (IBP)</t>
+  </si>
+  <si>
+    <t>nonprofit organization of economists, advocates and policy analysts fiercely dedicated to ensuring governments are responsible stewards of public funds. We connect public financial management practitioners with activists, donors and others in more than 120 countries, working together to pioneer new approaches to enable citizen oversight of government taxation and spending. With the goal of eliminating poverty, IBP works to ensure that all people, especially underserved communities, have the right and ability to understand and influence how public money – their money – is raised and spent.</t>
+  </si>
+  <si>
+    <t>https://workforcenow.adp.com/mascsr/default/mdf/recruitment/postLogin.html?cid=0097f8b0-d7fc-4ca4-a65d-8e1424c01e16&amp;ccId=19000101_000001&amp;type=MP&amp;lang=en_US&amp;selectedMenuKey=CurrentOpenings&amp;jobId=379760&amp;requisitionId=9200047202562_1&amp;params=jobId</t>
+  </si>
+  <si>
+    <t>American Association for the Advancement of Science (AAAS)</t>
+  </si>
+  <si>
+    <t>international, nonprofit organization dedicated to advancing science, engineering and innovation for the benefit of all people. With more than 120,000 individual members in more than 91 countries, AAAS is the world’s largest multidisciplinary scientific society and a leading publisher of cutting-edge research through the Science family of journals. As one of the top voices for science worldwide, we spearhead initiatives in policy, international cooperation and diplomacy, STEM education, public engagement, and more.</t>
+  </si>
+  <si>
+    <t>https://www.societyforscience.org/jobs-and-internships/</t>
+  </si>
+  <si>
+    <t>Founded in 1921, Society for Science &amp; the Public is a nonprofit membership organization. Its vision is to promote the understanding and appreciation of science and the vital role it plays in human advancement: to inform, educate, and inspire. </t>
+  </si>
+  <si>
+    <t>Society for Science &amp; the Public</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Job/jobs.htm?suggestCount=0&amp;suggestChosen=false&amp;clickSource=searchBtn&amp;typedKeyword=Request+for+Proposal&amp;locT=&amp;locId=&amp;jobType=&amp;context=Jobs&amp;sc.keyword=Request+for+Proposal&amp;dropdown=0</t>
+  </si>
+  <si>
+    <t>RFP (Request for proposal)</t>
+  </si>
+  <si>
+    <t>A request for proposal (RFP) is a business document that announces and provides details about a project, as well as solicits bids from contractors who will help complete the project.  This is fairly common in M&amp;E and used to solicit contracts from companies AND PEOPLE</t>
+  </si>
+  <si>
+    <t>US Institute of Peace</t>
+  </si>
+  <si>
+    <t>https://recruiting.ultipro.com/UNI1083USIOP/JobBoard/14900d11-c546-42ff-ab52-7bbbfa78cb97/?q=&amp;o=postedDateDesc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">he United States Institute of Peace  is a national, nonpartisan, independent institute, founded by Congress and dedicated to the proposition that a world without violent conflict is possible, practical, and essential for U.S. and global security. </t>
+  </si>
+  <si>
+    <t>https://buildconsulting.com/join-our-team/</t>
+  </si>
+  <si>
+    <t>Build Consulting</t>
+  </si>
+  <si>
+    <t>We’re looking for committed team members who are equally passionate about building a great company, transforming nonprofits, and transforming the world.
+We work hard to ensure that every team member feels supported and encouraged to have a healthy balance between work and personal commitments. We don’t pester you in the evenings or on weekends—we respect your life outside of Build.</t>
+  </si>
+  <si>
+    <t>Modern Classrooms Project</t>
+  </si>
+  <si>
+    <t>https://themodernclassroomsproject.applytojob.com/apply</t>
+  </si>
+  <si>
+    <t>The Modern Classrooms Project empowers educators to meet every student’s needs through blended, self-paced, mastery-based instruction. 
+We lead a movement of educators in implementing a research-backed instructional model that leverages technology to improve educator effectiveness and learner understanding.</t>
   </si>
 </sst>
 </file>
@@ -1202,11 +1276,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J74"/>
+  <dimension ref="A1:L89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B70" sqref="B70"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1333,7 +1407,7 @@
         <v>83</v>
       </c>
       <c r="E4" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -1365,7 +1439,7 @@
         <v>84</v>
       </c>
       <c r="E5" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -1429,7 +1503,7 @@
         <v>86</v>
       </c>
       <c r="E7" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -1461,7 +1535,7 @@
         <v>87</v>
       </c>
       <c r="E8" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -1525,7 +1599,7 @@
         <v>89</v>
       </c>
       <c r="E10" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -1621,7 +1695,7 @@
         <v>92</v>
       </c>
       <c r="E13" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -1717,7 +1791,7 @@
         <v>95</v>
       </c>
       <c r="E16" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -1781,7 +1855,7 @@
         <v>97</v>
       </c>
       <c r="E18" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -1813,7 +1887,7 @@
         <v>98</v>
       </c>
       <c r="E19" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -1909,7 +1983,7 @@
         <v>101</v>
       </c>
       <c r="E22" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -2037,7 +2111,7 @@
         <v>40</v>
       </c>
       <c r="E26" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F26" s="1">
         <v>0</v>
@@ -2197,7 +2271,7 @@
         <v>108</v>
       </c>
       <c r="E31" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F31" s="1">
         <v>0</v>
@@ -2389,7 +2463,7 @@
         <v>114</v>
       </c>
       <c r="E37" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F37" s="1">
         <v>0</v>
@@ -2421,7 +2495,7 @@
         <v>26</v>
       </c>
       <c r="E38" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F38" s="1">
         <v>0</v>
@@ -2453,7 +2527,7 @@
         <v>115</v>
       </c>
       <c r="E39" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F39" s="1">
         <v>0</v>
@@ -2485,7 +2559,7 @@
         <v>116</v>
       </c>
       <c r="E40" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F40" s="1">
         <v>0</v>
@@ -2517,7 +2591,7 @@
         <v>117</v>
       </c>
       <c r="E41" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F41" s="1">
         <v>0</v>
@@ -2549,7 +2623,7 @@
         <v>118</v>
       </c>
       <c r="E42" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F42" s="1">
         <v>0</v>
@@ -2581,7 +2655,7 @@
         <v>119</v>
       </c>
       <c r="E43" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F43" s="1">
         <v>0</v>
@@ -2613,7 +2687,7 @@
         <v>129</v>
       </c>
       <c r="E44" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F44" s="1">
         <v>0</v>
@@ -2741,7 +2815,7 @@
         <v>133</v>
       </c>
       <c r="E48" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F48" s="1">
         <v>1</v>
@@ -2773,7 +2847,7 @@
         <v>170</v>
       </c>
       <c r="E49" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F49" s="1">
         <v>0</v>
@@ -2805,7 +2879,7 @@
         <v>172</v>
       </c>
       <c r="E50" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F50" s="1">
         <v>1</v>
@@ -2837,7 +2911,7 @@
         <v>175</v>
       </c>
       <c r="E51" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F51" s="1">
         <v>1</v>
@@ -2869,7 +2943,7 @@
         <v>196</v>
       </c>
       <c r="E52" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F52" s="1">
         <v>0</v>
@@ -2901,7 +2975,7 @@
         <v>200</v>
       </c>
       <c r="E53" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F53" s="1">
         <v>0</v>
@@ -2965,7 +3039,7 @@
         <v>208</v>
       </c>
       <c r="E55" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F55" s="1">
         <v>0</v>
@@ -2997,7 +3071,7 @@
         <v>209</v>
       </c>
       <c r="E56" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F56" s="1">
         <v>0</v>
@@ -3029,7 +3103,7 @@
         <v>214</v>
       </c>
       <c r="E57" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F57" s="1">
         <v>0</v>
@@ -3061,7 +3135,7 @@
         <v>217</v>
       </c>
       <c r="E58" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F58" s="1">
         <v>0</v>
@@ -3093,7 +3167,7 @@
         <v>220</v>
       </c>
       <c r="E59" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F59" s="1">
         <v>0</v>
@@ -3271,7 +3345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -3285,7 +3359,7 @@
         <v>237</v>
       </c>
       <c r="E65" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F65" s="1">
         <v>0</v>
@@ -3303,7 +3377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -3317,7 +3391,7 @@
         <v>240</v>
       </c>
       <c r="E66" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F66" s="1">
         <v>0</v>
@@ -3335,7 +3409,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -3367,7 +3441,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -3381,7 +3455,7 @@
         <v>246</v>
       </c>
       <c r="E68" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F68" s="1">
         <v>0</v>
@@ -3399,7 +3473,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -3413,7 +3487,7 @@
         <v>255</v>
       </c>
       <c r="E69" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F69" s="1">
         <v>0</v>
@@ -3431,7 +3505,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -3445,7 +3519,7 @@
         <v>258</v>
       </c>
       <c r="E70" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F70" s="1">
         <v>0</v>
@@ -3463,7 +3537,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -3477,7 +3551,7 @@
         <v>262</v>
       </c>
       <c r="E71" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F71" s="1">
         <v>0</v>
@@ -3495,7 +3569,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -3527,7 +3601,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -3559,7 +3633,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -3590,11 +3664,316 @@
       <c r="J74" s="1">
         <v>8</v>
       </c>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E75" s="1">
+        <v>60</v>
+      </c>
+      <c r="F75" s="1">
+        <v>0</v>
+      </c>
+      <c r="G75" s="1">
+        <v>1</v>
+      </c>
+      <c r="H75" s="1">
+        <v>1</v>
+      </c>
+      <c r="I75" s="1">
+        <v>2</v>
+      </c>
+      <c r="J75" s="1">
+        <v>8</v>
+      </c>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E76" s="1">
+        <v>60</v>
+      </c>
+      <c r="F76" s="1">
+        <v>0</v>
+      </c>
+      <c r="G76" s="1">
+        <v>1</v>
+      </c>
+      <c r="H76" s="1">
+        <v>1</v>
+      </c>
+      <c r="I76" s="1">
+        <v>2</v>
+      </c>
+      <c r="J76" s="1">
+        <v>8</v>
+      </c>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E77" s="1">
+        <v>60</v>
+      </c>
+      <c r="F77" s="1">
+        <v>0</v>
+      </c>
+      <c r="G77" s="1">
+        <v>1</v>
+      </c>
+      <c r="H77" s="1">
+        <v>1</v>
+      </c>
+      <c r="I77" s="1">
+        <v>2</v>
+      </c>
+      <c r="J77" s="1">
+        <v>8</v>
+      </c>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="E78" s="1">
+        <v>60</v>
+      </c>
+      <c r="F78" s="1">
+        <v>0</v>
+      </c>
+      <c r="G78" s="1">
+        <v>1</v>
+      </c>
+      <c r="H78" s="1">
+        <v>1</v>
+      </c>
+      <c r="I78" s="1">
+        <v>2</v>
+      </c>
+      <c r="J78" s="1">
+        <v>8</v>
+      </c>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E79" s="1">
+        <v>60</v>
+      </c>
+      <c r="F79" s="1">
+        <v>1</v>
+      </c>
+      <c r="G79" s="1">
+        <v>0</v>
+      </c>
+      <c r="H79" s="1">
+        <v>1</v>
+      </c>
+      <c r="I79" s="1">
+        <v>2</v>
+      </c>
+      <c r="J79" s="1">
+        <v>8</v>
+      </c>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E80" s="1">
+        <v>60</v>
+      </c>
+      <c r="F80" s="1">
+        <v>0</v>
+      </c>
+      <c r="G80" s="1">
+        <v>1</v>
+      </c>
+      <c r="H80" s="1">
+        <v>1</v>
+      </c>
+      <c r="I80" s="1">
+        <v>2</v>
+      </c>
+      <c r="J80" s="1">
+        <v>8</v>
+      </c>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E81" s="1">
+        <v>60</v>
+      </c>
+      <c r="F81" s="1">
+        <v>0</v>
+      </c>
+      <c r="G81" s="1">
+        <v>1</v>
+      </c>
+      <c r="H81" s="1">
+        <v>1</v>
+      </c>
+      <c r="I81" s="1">
+        <v>2</v>
+      </c>
+      <c r="J81" s="1">
+        <v>8</v>
+      </c>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E82" s="1">
+        <v>60</v>
+      </c>
+      <c r="F82" s="1">
+        <v>0</v>
+      </c>
+      <c r="G82" s="1">
+        <v>1</v>
+      </c>
+      <c r="H82" s="1">
+        <v>1</v>
+      </c>
+      <c r="I82" s="1">
+        <v>2</v>
+      </c>
+      <c r="J82" s="1">
+        <v>8</v>
+      </c>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:I43">
     <sortCondition ref="B2:B43"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="C76" r:id="rId1" xr:uid="{D935FA78-FA00-4B71-A864-199CB53BF8F4}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/job_files/jobboard_info.xlsx
+++ b/job_files/jobboard_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jai\Documents\github\job_visitor\job_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC8EECBE-83B9-4519-9500-56252C3DB994}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BEC319F-29F5-460D-9D24-4BB922C70F99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="325">
   <si>
     <t>name</t>
   </si>
@@ -65,10 +65,6 @@
   <si>
     <t>https://philanthropynewsdigest.org/jobs/(search)/?attr_tags_org_type_lk%5B%5D=&amp;attr_tags_job_type_lk%5B%5D=research%2Fpolicy&amp;attr_tags_location_lk%5B%5D=&amp;search_text=&amp;btn=&amp;day_filter=0
 https://philanthropynewsdigest.org/jobs/(search)/?attr_tags_org_type_lk%5B%5D=&amp;attr_tags_job_type_lk%5B%5D=consultant&amp;attr_tags_location_lk%5B%5D=&amp;search_text=&amp;btn=&amp;day_filter=0</t>
-  </si>
-  <si>
-    <t>https://www.devex.com/jobs/search?filter%5Bjob_types%5D%5B%5D=community%20jobs&amp;filter%5Blocations%5D%5B%5D=United%20States&amp;filter%5Bkeywords%5D%5B%5D=Data&amp;filter%5Bis_featured%5D=false&amp;page%5Bnumber%5D=3&amp;sorting%5Border%5D=desc&amp;sorting%5Bfield%5D=updated_at
-https://www.devex.com/jobs/search?filter%5Bjob_types%5D%5B%5D=community%20jobs&amp;filter%5Blocations%5D%5B%5D=United%20States&amp;filter%5Bkeywords%5D%5B%5D=Evaluation&amp;filter%5Bis_featured%5D=false&amp;sorting%5Border%5D=desc&amp;sorting%5Bfield%5D=updated_at</t>
   </si>
   <si>
     <t>https://www.foundationlist.org/jobs/advanced-search/?query=Data&amp;location=California&amp;results=1</t>
@@ -946,13 +942,116 @@
   <si>
     <t>The Modern Classrooms Project empowers educators to meet every student’s needs through blended, self-paced, mastery-based instruction. 
 We lead a movement of educators in implementing a research-backed instructional model that leverages technology to improve educator effectiveness and learner understanding.</t>
+  </si>
+  <si>
+    <t>https://www.ussif.org/jobs_search.asp?proc=y</t>
+  </si>
+  <si>
+    <t>US SIF: The Forum for Sustainable and Responsible Investment</t>
+  </si>
+  <si>
+    <t>the leading voice advancing sustainable investing across all asset classes. Its mission is to rapidly shift investment practices toward sustainability, focusing on long-term investment and the generation of positive social and environmental impacts.</t>
+  </si>
+  <si>
+    <t>https://acumen.org/work-with-us/</t>
+  </si>
+  <si>
+    <t>Impact investing - Neither the markets nor aid alone can solve the problems of poverty. More than two billion people around the world lack access to basic goods and services—from clean water and electricity to an education and the freedom to participate in the economy. We’re here to change that. Our vision is a world based on dignity, where every human being has the same opportunity. Rather than giving philanthropy away, we invest it in companies and change makers.</t>
+  </si>
+  <si>
+    <t>https://change-finance.com/careers/</t>
+  </si>
+  <si>
+    <t>Change Finance</t>
+  </si>
+  <si>
+    <t>Change Finance builds performance-oriented investment products for the sustainability-minded investor. We believe investing for good can profit people, planet, and investors. Through a conscious, rigorous, rules-based approach, we’ve created an Enhanced ESG methodology that underpins our investment products.</t>
+  </si>
+  <si>
+    <t>TransformEd</t>
+  </si>
+  <si>
+    <t>https://www.transformingeducation.org/get-involved/careers/</t>
+  </si>
+  <si>
+    <t>At TransformEd, we believe that every young person deserves to be supported in the development of their whole self, yet, due to systemic oppression, students from historically marginalized populations often do not have the access they deserve to rich, positive learning environments that foster their development. We believe that the education system is ripe for transformation, to better serve the needs of students, families, and communities. We focus on the school system as the unit of change, partnering directly with school districts and other education support organizations in order to support educators and leaders in changing policies and practices to foster whole child development.</t>
+  </si>
+  <si>
+    <t>Harvard</t>
+  </si>
+  <si>
+    <t>https://sjobs.brassring.com/TGnewUI/Search/Home/Home?partnerid=25240&amp;siteid=5341#keyWordSearch=Python</t>
+  </si>
+  <si>
+    <t>I was recently invited to interview for a research specialist position with Harvard that matches my open-source &amp; data analytic contributions/intersts. I've decided that higher education is a good opportunity to contribute to exciting, meaningful projects, develop new skills, and network</t>
+  </si>
+  <si>
+    <t>Yale</t>
+  </si>
+  <si>
+    <t>https://sjobs.brassring.com/TGnewUI/Search/Home/Home?partnerid=25053&amp;siteid=5248#keyWordSearch=Evaluation</t>
+  </si>
+  <si>
+    <t>MIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://careers.peopleclick.com/careerscp/client_mit/external/search/search.html
+</t>
+  </si>
+  <si>
+    <t>Princeton</t>
+  </si>
+  <si>
+    <t>https://hub-princeton.icims.com/jobs/search?ss=1&amp;hashed=-435679187&amp;mobile=false&amp;width=1200&amp;height=500&amp;bga=true&amp;needsRedirect=false&amp;jan1offset=-300&amp;jun1offset=-240</t>
+  </si>
+  <si>
+    <t>Stanford</t>
+  </si>
+  <si>
+    <t>https://careersearch.stanford.edu/jobs/search/6371937
+https://careersearch.stanford.edu/jobs/search/6371888
+https://careersearch.stanford.edu/jobs/search/6371903
+https://careersearch.stanford.edu/jobs/search/6371904</t>
+  </si>
+  <si>
+    <t>Progressive Exchange</t>
+  </si>
+  <si>
+    <t>The Progressive Exchange is an online community that was started in 2004 by M+R as a way to share information about online strategies, tactics and tools among people doing internet organizing, advocacy, marketing and fundraising on behalf of the public interest.</t>
+  </si>
+  <si>
+    <t>https://www.progressiveexchange.org/vb/forumdisplay.php?f=35</t>
+  </si>
+  <si>
+    <t>Jobs that are left</t>
+  </si>
+  <si>
+    <t>https://groups.google.com/g/jobsleft
+https://groups.google.com/g/jobsleft</t>
+  </si>
+  <si>
+    <r>
+      <t>obs That Are Left</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4D5156"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (JTAL) is a popular google group for the Democratic and Progressive community managed by GAIN POWER. Questions about our policies ...</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.devex.com/jobs/search?filter%5Blocations%5D%5B%5D=United%20States&amp;filter%5Bis_featured%5D=false&amp;sorting%5Border%5D=desc&amp;sorting%5Bfield%5D=_score</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -967,6 +1066,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4D5156"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -989,13 +1094,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1276,11 +1379,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L89"/>
+  <dimension ref="A1:J93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B82" sqref="B82"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1295,38 +1398,39 @@
     <col min="8" max="8" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -1334,13 +1438,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E2" s="1">
         <v>6</v>
@@ -1366,13 +1470,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E3" s="1">
         <v>6</v>
@@ -1398,13 +1502,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E4" s="1">
         <v>40</v>
@@ -1430,13 +1534,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E5" s="1">
         <v>40</v>
@@ -1451,10 +1555,10 @@
         <v>1</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1462,13 +1566,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E6" s="1">
         <v>6</v>
@@ -1494,13 +1598,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E7" s="1">
         <v>40</v>
@@ -1526,13 +1630,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E8" s="1">
         <v>40</v>
@@ -1558,13 +1662,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E9" s="1">
         <v>6</v>
@@ -1590,13 +1694,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E10" s="1">
         <v>40</v>
@@ -1611,10 +1715,10 @@
         <v>1</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1622,13 +1726,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E11" s="1">
         <v>6</v>
@@ -1654,13 +1758,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E12" s="1">
         <v>6</v>
@@ -1686,13 +1790,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E13" s="1">
         <v>40</v>
@@ -1707,10 +1811,10 @@
         <v>1</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1718,13 +1822,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E14" s="1">
         <v>5</v>
@@ -1750,13 +1854,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>12</v>
+        <v>324</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E15" s="1">
         <v>6</v>
@@ -1782,13 +1886,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E16" s="1">
         <v>40</v>
@@ -1814,13 +1918,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E17" s="1">
         <v>5</v>
@@ -1846,13 +1950,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E18" s="1">
         <v>40</v>
@@ -1878,13 +1982,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E19" s="1">
         <v>40</v>
@@ -1899,10 +2003,10 @@
         <v>1</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1910,13 +2014,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>18</v>
+        <v>58</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E20" s="1">
         <v>5</v>
@@ -1942,13 +2046,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E21" s="1">
         <v>6</v>
@@ -1974,13 +2078,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E22" s="1">
         <v>40</v>
@@ -2006,13 +2110,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E23" s="1">
         <v>5</v>
@@ -2038,13 +2142,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E24" s="1">
         <v>11</v>
@@ -2070,13 +2174,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E25" s="1">
         <v>6</v>
@@ -2102,13 +2206,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E26" s="1">
         <v>40</v>
@@ -2134,13 +2238,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E27" s="1">
         <v>6</v>
@@ -2166,13 +2270,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>193</v>
+        <v>65</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>192</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E28" s="1">
         <v>6</v>
@@ -2198,13 +2302,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>253</v>
+        <v>66</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>252</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E29" s="1">
         <v>2</v>
@@ -2230,13 +2334,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E30" s="1">
         <v>5</v>
@@ -2262,13 +2366,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E31" s="1">
         <v>40</v>
@@ -2283,10 +2387,10 @@
         <v>1</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -2294,13 +2398,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E32" s="1">
         <v>6</v>
@@ -2326,13 +2430,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E33" s="1">
         <v>6</v>
@@ -2358,13 +2462,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E34" s="1">
         <v>6</v>
@@ -2390,13 +2494,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E35" s="1">
         <v>6</v>
@@ -2422,13 +2526,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E36" s="1">
         <v>3</v>
@@ -2454,13 +2558,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E37" s="1">
         <v>40</v>
@@ -2486,13 +2590,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>249</v>
+        <v>75</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E38" s="1">
         <v>40</v>
@@ -2507,10 +2611,10 @@
         <v>1</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -2518,13 +2622,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>250</v>
+        <v>76</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>249</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E39" s="1">
         <v>40</v>
@@ -2550,13 +2654,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E40" s="1">
         <v>40</v>
@@ -2568,13 +2672,13 @@
         <v>1</v>
       </c>
       <c r="H40" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J40" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -2582,13 +2686,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E41" s="1">
         <v>40</v>
@@ -2603,10 +2707,10 @@
         <v>1</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -2614,13 +2718,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E42" s="1">
         <v>40</v>
@@ -2646,13 +2750,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E43" s="1">
         <v>40</v>
@@ -2678,13 +2782,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E44" s="1">
         <v>40</v>
@@ -2710,13 +2814,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E45" s="1">
         <v>9</v>
@@ -2742,13 +2846,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E46" s="1">
         <v>9</v>
@@ -2774,13 +2878,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E47" s="1">
         <v>15</v>
@@ -2806,13 +2910,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E48" s="1">
         <v>40</v>
@@ -2838,13 +2942,13 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>170</v>
       </c>
       <c r="E49" s="1">
         <v>40</v>
@@ -2870,13 +2974,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="E50" s="1">
         <v>40</v>
@@ -2902,13 +3006,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="E51" s="1">
         <v>40</v>
@@ -2934,13 +3038,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="E52" s="1">
         <v>40</v>
@@ -2966,13 +3070,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="D53" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>200</v>
       </c>
       <c r="E53" s="1">
         <v>40</v>
@@ -2987,10 +3091,10 @@
         <v>1</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -2998,13 +3102,13 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C54" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="E54" s="1">
         <v>10</v>
@@ -3030,13 +3134,13 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>208</v>
       </c>
       <c r="E55" s="1">
         <v>40</v>
@@ -3062,13 +3166,13 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C56" s="5" t="s">
-        <v>211</v>
-      </c>
       <c r="D56" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E56" s="1">
         <v>40</v>
@@ -3094,13 +3198,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="D57" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>214</v>
       </c>
       <c r="E57" s="1">
         <v>40</v>
@@ -3126,13 +3230,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="D58" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>217</v>
       </c>
       <c r="E58" s="1">
         <v>60</v>
@@ -3158,13 +3262,13 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="D59" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>220</v>
       </c>
       <c r="E59" s="1">
         <v>40</v>
@@ -3190,13 +3294,13 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="D60" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>223</v>
       </c>
       <c r="E60" s="1">
         <v>15</v>
@@ -3222,13 +3326,13 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>225</v>
       </c>
       <c r="E61" s="1">
         <v>15</v>
@@ -3243,7 +3347,7 @@
         <v>1</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J61" s="1">
         <v>0</v>
@@ -3254,13 +3358,13 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>228</v>
-      </c>
       <c r="D62" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E62" s="1">
         <v>10</v>
@@ -3286,13 +3390,13 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>229</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>230</v>
       </c>
       <c r="E63" s="1">
         <v>10</v>
@@ -3318,13 +3422,13 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="D64" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>234</v>
       </c>
       <c r="E64" s="1">
         <v>10</v>
@@ -3345,18 +3449,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>237</v>
       </c>
       <c r="E65" s="1">
         <v>40</v>
@@ -3377,18 +3481,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="D66" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>240</v>
       </c>
       <c r="E66" s="1">
         <v>40</v>
@@ -3409,18 +3513,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C67" s="5" t="s">
-        <v>243</v>
-      </c>
       <c r="D67" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E67" s="1">
         <v>60</v>
@@ -3441,18 +3545,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="D68" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>246</v>
       </c>
       <c r="E68" s="1">
         <v>40</v>
@@ -3467,24 +3571,24 @@
         <v>1</v>
       </c>
       <c r="I68" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="J68" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="J68" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E69" s="1">
         <v>40</v>
@@ -3505,18 +3609,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D70" s="1" t="s">
         <v>257</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>258</v>
       </c>
       <c r="E70" s="1">
         <v>40</v>
@@ -3537,18 +3641,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="D71" s="1" t="s">
         <v>261</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>262</v>
       </c>
       <c r="E71" s="1">
         <v>40</v>
@@ -3569,18 +3673,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="D72" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>265</v>
       </c>
       <c r="E72" s="1">
         <v>10</v>
@@ -3601,18 +3705,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="D73" s="1" t="s">
         <v>267</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>268</v>
       </c>
       <c r="E73" s="1">
         <v>10</v>
@@ -3633,18 +3737,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="D74" s="1" t="s">
         <v>270</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>271</v>
       </c>
       <c r="E74" s="1">
         <v>10</v>
@@ -3664,21 +3768,19 @@
       <c r="J74" s="1">
         <v>8</v>
       </c>
-      <c r="K74" s="1"/>
-      <c r="L74" s="1"/>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D75" s="1" t="s">
         <v>274</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>275</v>
       </c>
       <c r="E75" s="1">
         <v>60</v>
@@ -3698,21 +3800,19 @@
       <c r="J75" s="1">
         <v>8</v>
       </c>
-      <c r="K75" s="1"/>
-      <c r="L75" s="1"/>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D76" s="1" t="s">
         <v>277</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>278</v>
       </c>
       <c r="E76" s="1">
         <v>60</v>
@@ -3732,21 +3832,19 @@
       <c r="J76" s="1">
         <v>8</v>
       </c>
-      <c r="K76" s="1"/>
-      <c r="L76" s="1"/>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D77" s="1" t="s">
         <v>280</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>281</v>
       </c>
       <c r="E77" s="1">
         <v>60</v>
@@ -3766,21 +3864,19 @@
       <c r="J77" s="1">
         <v>8</v>
       </c>
-      <c r="K77" s="1"/>
-      <c r="L77" s="1"/>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C78" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D78" s="1" t="s">
         <v>282</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>283</v>
       </c>
       <c r="E78" s="1">
         <v>60</v>
@@ -3800,21 +3896,19 @@
       <c r="J78" s="1">
         <v>8</v>
       </c>
-      <c r="K78" s="1"/>
-      <c r="L78" s="1"/>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D79" s="1" t="s">
         <v>286</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>287</v>
       </c>
       <c r="E79" s="1">
         <v>60</v>
@@ -3834,21 +3928,19 @@
       <c r="J79" s="1">
         <v>8</v>
       </c>
-      <c r="K79" s="1"/>
-      <c r="L79" s="1"/>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="D80" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>290</v>
       </c>
       <c r="E80" s="1">
         <v>60</v>
@@ -3868,21 +3960,19 @@
       <c r="J80" s="1">
         <v>8</v>
       </c>
-      <c r="K80" s="1"/>
-      <c r="L80" s="1"/>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D81" s="1" t="s">
         <v>292</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>293</v>
       </c>
       <c r="E81" s="1">
         <v>60</v>
@@ -3902,21 +3992,19 @@
       <c r="J81" s="1">
         <v>8</v>
       </c>
-      <c r="K81" s="1"/>
-      <c r="L81" s="1"/>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="D82" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>296</v>
       </c>
       <c r="E82" s="1">
         <v>60</v>
@@ -3936,36 +4024,358 @@
       <c r="J82" s="1">
         <v>8</v>
       </c>
-      <c r="K82" s="1"/>
-      <c r="L82" s="1"/>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K83" s="1"/>
-      <c r="L83" s="1"/>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K84" s="1"/>
-      <c r="L84" s="1"/>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K85" s="1"/>
-      <c r="L85" s="1"/>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K86" s="1"/>
-      <c r="L86" s="1"/>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K87" s="1"/>
-      <c r="L87" s="1"/>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K88" s="1"/>
-      <c r="L88" s="1"/>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K89" s="1"/>
-      <c r="L89" s="1"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E83" s="1">
+        <v>60</v>
+      </c>
+      <c r="F83" s="1">
+        <v>0</v>
+      </c>
+      <c r="G83" s="1">
+        <v>1</v>
+      </c>
+      <c r="H83" s="1">
+        <v>1</v>
+      </c>
+      <c r="I83" s="1">
+        <v>2</v>
+      </c>
+      <c r="J83" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E84" s="1">
+        <v>60</v>
+      </c>
+      <c r="F84" s="1">
+        <v>0</v>
+      </c>
+      <c r="G84" s="1">
+        <v>1</v>
+      </c>
+      <c r="H84" s="1">
+        <v>0</v>
+      </c>
+      <c r="I84" s="1">
+        <v>0</v>
+      </c>
+      <c r="J84" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E85" s="1">
+        <v>60</v>
+      </c>
+      <c r="F85" s="1">
+        <v>0</v>
+      </c>
+      <c r="G85" s="1">
+        <v>1</v>
+      </c>
+      <c r="H85" s="1">
+        <v>0</v>
+      </c>
+      <c r="I85" s="1">
+        <v>0</v>
+      </c>
+      <c r="J85" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="E86" s="1">
+        <v>60</v>
+      </c>
+      <c r="F86" s="1">
+        <v>0</v>
+      </c>
+      <c r="G86" s="1">
+        <v>1</v>
+      </c>
+      <c r="H86" s="1">
+        <v>0</v>
+      </c>
+      <c r="I86" s="1">
+        <v>0</v>
+      </c>
+      <c r="J86" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E87" s="1">
+        <v>60</v>
+      </c>
+      <c r="F87" s="1">
+        <v>0</v>
+      </c>
+      <c r="G87" s="1">
+        <v>1</v>
+      </c>
+      <c r="H87" s="1">
+        <v>0</v>
+      </c>
+      <c r="I87" s="1">
+        <v>0</v>
+      </c>
+      <c r="J87" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E88" s="1">
+        <v>60</v>
+      </c>
+      <c r="F88" s="1">
+        <v>0</v>
+      </c>
+      <c r="G88" s="1">
+        <v>1</v>
+      </c>
+      <c r="H88" s="1">
+        <v>0</v>
+      </c>
+      <c r="I88" s="1">
+        <v>0</v>
+      </c>
+      <c r="J88" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E89" s="1">
+        <v>60</v>
+      </c>
+      <c r="F89" s="1">
+        <v>0</v>
+      </c>
+      <c r="G89" s="1">
+        <v>1</v>
+      </c>
+      <c r="H89" s="1">
+        <v>0</v>
+      </c>
+      <c r="I89" s="1">
+        <v>0</v>
+      </c>
+      <c r="J89" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E90" s="1">
+        <v>60</v>
+      </c>
+      <c r="F90" s="1">
+        <v>0</v>
+      </c>
+      <c r="G90" s="1">
+        <v>1</v>
+      </c>
+      <c r="H90" s="1">
+        <v>0</v>
+      </c>
+      <c r="I90" s="1">
+        <v>0</v>
+      </c>
+      <c r="J90" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E91" s="1">
+        <v>60</v>
+      </c>
+      <c r="F91" s="1">
+        <v>0</v>
+      </c>
+      <c r="G91" s="1">
+        <v>1</v>
+      </c>
+      <c r="H91" s="1">
+        <v>0</v>
+      </c>
+      <c r="I91" s="1">
+        <v>0</v>
+      </c>
+      <c r="J91" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E92" s="1">
+        <v>60</v>
+      </c>
+      <c r="F92" s="1">
+        <v>1</v>
+      </c>
+      <c r="G92" s="1">
+        <v>0</v>
+      </c>
+      <c r="H92" s="1">
+        <v>0</v>
+      </c>
+      <c r="I92" s="1">
+        <v>0</v>
+      </c>
+      <c r="J92" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="E93" s="1">
+        <v>60</v>
+      </c>
+      <c r="F93" s="1">
+        <v>1</v>
+      </c>
+      <c r="G93" s="1">
+        <v>0</v>
+      </c>
+      <c r="H93" s="1">
+        <v>0</v>
+      </c>
+      <c r="I93" s="1">
+        <v>0</v>
+      </c>
+      <c r="J93" s="1">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:I43">
@@ -3973,6 +4383,9 @@
   </sortState>
   <hyperlinks>
     <hyperlink ref="C76" r:id="rId1" xr:uid="{D935FA78-FA00-4B71-A864-199CB53BF8F4}"/>
+    <hyperlink ref="C87" r:id="rId2" location="keyWordSearch=Python" xr:uid="{C957A0A2-4937-4544-AAC7-D50CCE88DC33}"/>
+    <hyperlink ref="C89" r:id="rId3" xr:uid="{777C39A2-DAF8-46B2-8961-BBC4FC7074E3}"/>
+    <hyperlink ref="C15" r:id="rId4" xr:uid="{30D7857E-D9CA-405D-B2B3-C50A75A14DE0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3991,20 +4404,20 @@
     <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -4012,7 +4425,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -4020,7 +4433,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -4028,7 +4441,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -4050,11 +4463,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -4062,7 +4475,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -4070,7 +4483,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -4078,7 +4491,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -4086,7 +4499,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -4094,7 +4507,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -4102,7 +4515,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -4110,7 +4523,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -4118,7 +4531,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -4126,7 +4539,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -4134,7 +4547,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -4156,11 +4569,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>141</v>
+      <c r="A1" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -4168,7 +4581,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -4176,7 +4589,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -4184,7 +4597,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -4192,7 +4605,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -4200,7 +4613,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -4208,7 +4621,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -4216,7 +4629,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -4224,7 +4637,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -4232,7 +4645,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -4240,7 +4653,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -4248,7 +4661,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -4256,7 +4669,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -4264,7 +4677,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -4272,7 +4685,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -4280,7 +4693,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>

--- a/job_files/jobboard_info.xlsx
+++ b/job_files/jobboard_info.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jai\Documents\github\job_visitor\job_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BEC319F-29F5-460D-9D24-4BB922C70F99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEFF9AAB-1674-43A5-8DFD-C961C9F7965E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="382">
   <si>
     <t>name</t>
   </si>
@@ -596,9 +596,6 @@
   </si>
   <si>
     <t>http://www.fundconsulting.com/careers/</t>
-  </si>
-  <si>
-    <t>https://www.developmentaid.org/#!/jobs/search?sort=highlighted.desc,posted_date.desc&amp;public=1&amp;all=0&amp;languages=92&amp;maximumExperience=4</t>
   </si>
   <si>
     <t>https://venturewell.org/careers/</t>
@@ -1030,8 +1027,17 @@
 https://groups.google.com/g/jobsleft</t>
   </si>
   <si>
+    <t>https://www.devex.com/jobs/search?filter%5Blocations%5D%5B%5D=United%20States&amp;filter%5Bis_featured%5D=false&amp;sorting%5Border%5D=desc&amp;sorting%5Bfield%5D=_score</t>
+  </si>
+  <si>
+    <t>https://recruiting.paylocity.com/Recruiting/Jobs/All/eeec35bc-2836-42ab-91a8-a6c9955cf4c0</t>
+  </si>
+  <si>
+    <t>Center for Law and Social Policy, Inc.</t>
+  </si>
+  <si>
     <r>
-      <t>obs That Are Left</t>
+      <t>Jobs That Are Left</t>
     </r>
     <r>
       <rPr>
@@ -1044,14 +1050,184 @@
     </r>
   </si>
   <si>
-    <t>https://www.devex.com/jobs/search?filter%5Blocations%5D%5B%5D=United%20States&amp;filter%5Bis_featured%5D=false&amp;sorting%5Border%5D=desc&amp;sorting%5Bfield%5D=_score</t>
+    <t>About CLASP CLASP is a national, nonpartisan, anti-poverty nonprofit advancing policy solutions for low-income people. We develop practical yet visionary strategies for reducing poverty, promoting economic opportunity, and addressing barriers faced by people of color.</t>
+  </si>
+  <si>
+    <t>Migration Policy Institute (MPI)</t>
+  </si>
+  <si>
+    <t>https://www.migrationpolicy.org/about/work-mpi</t>
+  </si>
+  <si>
+    <t>The Migration Policy Institute (MPI) is a non-partisan[1][2] think tank established in 2001 by Kathleen Newland and Demetrios G. Papademetriou. MPI has been described as supportive of liberal immigration policies.</t>
+  </si>
+  <si>
+    <t>UC San Diego</t>
+  </si>
+  <si>
+    <t>https://jobs.ucsd.edu/bulletin/ByCategory.aspx?cat=edulib&amp;search=&amp;center=ALL
+https://jobs.ucsd.edu/bulletin/ByCategory.aspx?cat=research&amp;search=&amp;center=ALL
+https://jobs.ucsd.edu/bulletin/ByCategory.aspx?cat=information&amp;search=&amp;center=ALL</t>
+  </si>
+  <si>
+    <t>General research institution with intuitive application process</t>
+  </si>
+  <si>
+    <t>Beyond 12</t>
+  </si>
+  <si>
+    <t>https://apply.workable.com/beyond12/?lng=en</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beyond 12 is a technology-based service nonprofit whose mission is to increase the number of historically underrepresented students who graduate from our nation’s colleges and universities. </t>
+  </si>
+  <si>
+    <t>LEK Consulting</t>
+  </si>
+  <si>
+    <t>L.E.K. Consulting is a global management consulting firm based in London and Boston. It was founded in 1983 from three prior partners from Bain &amp; Company. The company’s focus is mergers and acquisitions, corporate strategy, and operations. LEK’s approach is generalist across all major industries, which includes a large presence in defense, aviation, life sciences, healthcare, energy, entertainment, transport, retail, consumer products and financial services. The firm is also known for its large private equity practice.</t>
+  </si>
+  <si>
+    <t>https://lek.tal.net/vx/lang-en-GB/mobile-0/system-42/appcentre-2/brand-2/candidate/jobboard/vacancy/3/adv/</t>
+  </si>
+  <si>
+    <t>The Chronicle of Higher Education</t>
+  </si>
+  <si>
+    <t>Education jobs nationally</t>
+  </si>
+  <si>
+    <t>https://jobs.chronicle.com/jobs/california/#browsing
+https://jobs.chronicle.com/jobs/administrative/california/#browsing</t>
+  </si>
+  <si>
+    <t>Data Kind</t>
+  </si>
+  <si>
+    <t>https://www.datakind.org/careers/</t>
+  </si>
+  <si>
+    <t>DataKind is always looking for enthusiastic do-gooders to join us in tackling the world’s toughest problems with data science and AI. We're a fast-growing, global team that believes in the power of data and collaboration to change the world.</t>
+  </si>
+  <si>
+    <t>Evidation</t>
+  </si>
+  <si>
+    <t>https://evidation.com/careers/</t>
+  </si>
+  <si>
+    <t>Health justice research and data organization based in santa barbara</t>
+  </si>
+  <si>
+    <t>Education Analytics</t>
+  </si>
+  <si>
+    <t>https://edanalytics.org/careers</t>
+  </si>
+  <si>
+    <t>Education Analytics (EA) is a non-profit organization that uses data analysis to inform education policy decisions. We work with school districts, states and foundation partners across the country to identify ways to improve education systems. EA seeks employees that are interested in improving and supporting U.S. K-12 public education through data analysis and have a desire to work in a team environment at a fast-growing, fast-paced nonprofit. Employees enjoy a competitive salary, generous benefits and a casual office environment located right in the heart of downtown Madison.</t>
+  </si>
+  <si>
+    <t>Leadership for education equity</t>
+  </si>
+  <si>
+    <t>https://educationalequity.csod.com/ats/careersite/search.aspx?site=1&amp;c=educationalequity</t>
+  </si>
+  <si>
+    <t>International Baccalaureate</t>
+  </si>
+  <si>
+    <t>https://ejst.fa.em3.oraclecloud.com/hcmUI/CandidateExperience/en/sites/CX/requisitions?keyword=Data&amp;location=United%20States&amp;locationId=300000000298151&amp;locationLevel=country</t>
+  </si>
+  <si>
+    <t>eadership for Educational Equity is a nonprofit leadership development organization inspiring &amp; supporting a network of civic leaders to end the injustice of leducational inequity. …</t>
+  </si>
+  <si>
+    <t>https://www.springboardcollaborative.org/get-involved/job-seekers/</t>
+  </si>
+  <si>
+    <t>The International Baccalaureate (IB), formerly known as the International Baccalaureate Organization (IBO), is a non-profit foundation headquartered in Geneva, Switzerland, and founded in 1968.</t>
+  </si>
+  <si>
+    <t>Springboard Collaborative</t>
+  </si>
+  <si>
+    <t>Springboard Collaborative closes the literacy gap by closing the gap between home and school through summer, afterschool, and in-school programs.</t>
+  </si>
+  <si>
+    <t>Community Solutions</t>
+  </si>
+  <si>
+    <t>https://community-solutions.breezy.hr/</t>
+  </si>
+  <si>
+    <t>We provide critical services for children, teens, adults, and families who are facing times of crisis, ranging from mental health and substance use challenges to domestic violence, sexual assault, and human trafficking. We provide services in Santa Clara County and San Benito County.</t>
+  </si>
+  <si>
+    <t>AIR (American Institute of Research)</t>
+  </si>
+  <si>
+    <t>https://jobs-airdc.icims.com/jobs/search?mode=redo&amp;pr=0&amp;schemaId=%24T%7BJob%7D.%24T%7BJobLocation%7D.%24F%7BCountryName%7D&amp;o=D</t>
+  </si>
+  <si>
+    <t>Established in 1946, the American Institutes for Research (AIR) is one of the world's largest behavioral and social science research and evaluation organizations. Our mission is to generate and use rigorous evidence that contributes to a better, more equitable world.</t>
+  </si>
+  <si>
+    <t>EthicalJobs</t>
+  </si>
+  <si>
+    <t>https://www.ethicaljobs.com.au/jobs?keywords=Data</t>
+  </si>
+  <si>
+    <t>Find community jobs, environmental jobs, not-for-profit jobs and social work jobs in Melbourne, Sydney, Brisbane, Perth &amp; Adelaide. -- Austrailia based.</t>
+  </si>
+  <si>
+    <t>https://www.developmentaid.org/#!/jobs/search?sort=highlighted.desc,posted_date.desc&amp;public=1&amp;all=0&amp;languages=92&amp;maximumExperience=4
+https://www.developmentaid.org/#!/jobs/search?sort=highlighted.desc,posted_date.desc&amp;searchedText=Data</t>
+  </si>
+  <si>
+    <t>Work for good</t>
+  </si>
+  <si>
+    <t>https://www.workforgood.org/searchjobs/?Keywords=Data&amp;radialtown=United+States&amp;LocationId=200&amp;RadialLocation=20&amp;LocationId=None</t>
+  </si>
+  <si>
+    <t>Welcome to the go-to source for finding purpose-driven nonprofit jobs. We connect mission-focused organizations with talented professionals.</t>
+  </si>
+  <si>
+    <t>Social Impact</t>
+  </si>
+  <si>
+    <t>https://phg.tbe.taleo.net/phg02/ats/careers/searchResults.jsp?org=SOCIIMPA2&amp;cws=1</t>
+  </si>
+  <si>
+    <t>Social Impact is a global development management consulting firm. We provide monitoring, evaluation, and capacity building services to advance development effectiveness</t>
+  </si>
+  <si>
+    <t>Net Impact</t>
+  </si>
+  <si>
+    <t>https://www.netimpact.org/jobs?jobkey=Data&amp;jobdist=-&amp;jobloc=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Net Impact has grown a grassroots, global movement of students and emerging impact leaders who want to use their skills to make a positive impact for people and planet.
+</t>
+  </si>
+  <si>
+    <t>Vera Solutions</t>
+  </si>
+  <si>
+    <t>https://www.verasolutions.org/careers/#OpenPositions</t>
+  </si>
+  <si>
+    <t>ocial sector professionals who crave more information that’s both reliable and easy to use. We aim to make their jobs easier, which we believe will not only contribute to a growing movement for greater transparency and accountability within the sector, but will also lead to happier and more productive professionals.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1073,6 +1249,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1091,16 +1275,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1379,16 +1569,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J93"/>
+  <dimension ref="A1:J112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E115" sqref="E115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
@@ -1415,7 +1605,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>181</v>
@@ -1825,7 +2015,7 @@
         <v>53</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>92</v>
@@ -1857,7 +2047,7 @@
         <v>124</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>93</v>
@@ -2273,7 +2463,7 @@
         <v>65</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>104</v>
@@ -2305,7 +2495,7 @@
         <v>66</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>105</v>
@@ -2593,7 +2783,7 @@
         <v>75</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>25</v>
@@ -2625,7 +2815,7 @@
         <v>76</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>114</v>
@@ -2686,7 +2876,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>29</v>
@@ -2721,7 +2911,7 @@
         <v>78</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>117</v>
@@ -2817,7 +3007,7 @@
         <v>121</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>187</v>
+        <v>369</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>129</v>
@@ -2881,7 +3071,7 @@
         <v>126</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>131</v>
@@ -2977,7 +3167,7 @@
         <v>170</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>171</v>
@@ -3038,13 +3228,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="E52" s="1">
         <v>40</v>
@@ -3070,13 +3260,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>199</v>
       </c>
       <c r="E53" s="1">
         <v>40</v>
@@ -3091,10 +3281,10 @@
         <v>1</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -3105,10 +3295,10 @@
         <v>58</v>
       </c>
       <c r="C54" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>204</v>
       </c>
       <c r="E54" s="1">
         <v>10</v>
@@ -3134,13 +3324,13 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>207</v>
       </c>
       <c r="E55" s="1">
         <v>40</v>
@@ -3166,13 +3356,13 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="D56" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E56" s="1">
         <v>40</v>
@@ -3198,13 +3388,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="E57" s="1">
         <v>40</v>
@@ -3230,13 +3420,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="D58" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>216</v>
       </c>
       <c r="E58" s="1">
         <v>60</v>
@@ -3262,13 +3452,13 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="D59" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="E59" s="1">
         <v>40</v>
@@ -3294,13 +3484,13 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="D60" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>222</v>
       </c>
       <c r="E60" s="1">
         <v>15</v>
@@ -3326,13 +3516,13 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>224</v>
       </c>
       <c r="E61" s="1">
         <v>15</v>
@@ -3347,7 +3537,7 @@
         <v>1</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J61" s="1">
         <v>0</v>
@@ -3358,13 +3548,13 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="D62" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E62" s="1">
         <v>10</v>
@@ -3390,13 +3580,13 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>228</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>229</v>
       </c>
       <c r="E63" s="1">
         <v>10</v>
@@ -3422,13 +3612,13 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="D64" s="1" t="s">
         <v>232</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>233</v>
       </c>
       <c r="E64" s="1">
         <v>10</v>
@@ -3454,13 +3644,13 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>236</v>
       </c>
       <c r="E65" s="1">
         <v>40</v>
@@ -3486,13 +3676,13 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="D66" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>239</v>
       </c>
       <c r="E66" s="1">
         <v>40</v>
@@ -3518,13 +3708,13 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>242</v>
-      </c>
       <c r="D67" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E67" s="1">
         <v>60</v>
@@ -3550,13 +3740,13 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="D68" s="1" t="s">
         <v>244</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>245</v>
       </c>
       <c r="E68" s="1">
         <v>40</v>
@@ -3571,10 +3761,10 @@
         <v>1</v>
       </c>
       <c r="I68" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="J68" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="J68" s="1" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
@@ -3582,13 +3772,13 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E69" s="1">
         <v>40</v>
@@ -3614,13 +3804,13 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D70" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>257</v>
       </c>
       <c r="E70" s="1">
         <v>40</v>
@@ -3646,13 +3836,13 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="D71" s="1" t="s">
         <v>260</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>261</v>
       </c>
       <c r="E71" s="1">
         <v>40</v>
@@ -3678,13 +3868,13 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="D72" s="1" t="s">
         <v>263</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>264</v>
       </c>
       <c r="E72" s="1">
         <v>10</v>
@@ -3710,13 +3900,13 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="D73" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>267</v>
       </c>
       <c r="E73" s="1">
         <v>10</v>
@@ -3742,13 +3932,13 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="D74" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>270</v>
       </c>
       <c r="E74" s="1">
         <v>10</v>
@@ -3774,13 +3964,13 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D75" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>274</v>
       </c>
       <c r="E75" s="1">
         <v>60</v>
@@ -3806,13 +3996,13 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D76" s="1" t="s">
         <v>276</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="E76" s="1">
         <v>60</v>
@@ -3838,13 +4028,13 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D77" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>280</v>
       </c>
       <c r="E77" s="1">
         <v>60</v>
@@ -3870,13 +4060,13 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C78" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D78" s="1" t="s">
         <v>281</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>282</v>
       </c>
       <c r="E78" s="1">
         <v>60</v>
@@ -3902,13 +4092,13 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D79" s="1" t="s">
         <v>285</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>286</v>
       </c>
       <c r="E79" s="1">
         <v>60</v>
@@ -3934,13 +4124,13 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="D80" s="1" t="s">
         <v>288</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>289</v>
       </c>
       <c r="E80" s="1">
         <v>60</v>
@@ -3966,13 +4156,13 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D81" s="1" t="s">
         <v>291</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>292</v>
       </c>
       <c r="E81" s="1">
         <v>60</v>
@@ -3998,13 +4188,13 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="D82" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>295</v>
       </c>
       <c r="E82" s="1">
         <v>60</v>
@@ -4030,13 +4220,13 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D83" s="1" t="s">
         <v>297</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>298</v>
       </c>
       <c r="E83" s="1">
         <v>60</v>
@@ -4062,13 +4252,13 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C84" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D84" s="1" t="s">
         <v>299</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>300</v>
       </c>
       <c r="E84" s="1">
         <v>60</v>
@@ -4094,13 +4284,13 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D85" s="1" t="s">
         <v>302</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>303</v>
       </c>
       <c r="E85" s="1">
         <v>60</v>
@@ -4126,13 +4316,13 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C86" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="D86" s="1" t="s">
         <v>305</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>306</v>
       </c>
       <c r="E86" s="1">
         <v>60</v>
@@ -4158,13 +4348,13 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="D87" s="1" t="s">
         <v>308</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>309</v>
       </c>
       <c r="E87" s="1">
         <v>60</v>
@@ -4190,13 +4380,13 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="C88" s="1" t="s">
-        <v>311</v>
-      </c>
       <c r="D88" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E88" s="1">
         <v>60</v>
@@ -4222,13 +4412,13 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C89" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="C89" s="1" t="s">
-        <v>313</v>
-      </c>
       <c r="D89" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E89" s="1">
         <v>60</v>
@@ -4254,13 +4444,13 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="C90" s="1" t="s">
-        <v>315</v>
-      </c>
       <c r="D90" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E90" s="1">
         <v>60</v>
@@ -4286,13 +4476,13 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="C91" s="1" t="s">
-        <v>317</v>
-      </c>
       <c r="D91" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E91" s="1">
         <v>60</v>
@@ -4318,13 +4508,13 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D92" s="1" t="s">
         <v>318</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>319</v>
       </c>
       <c r="E92" s="1">
         <v>60</v>
@@ -4350,13 +4540,13 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="C93" s="1" t="s">
-        <v>322</v>
-      </c>
       <c r="D93" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="E93" s="1">
         <v>60</v>
@@ -4374,6 +4564,614 @@
         <v>0</v>
       </c>
       <c r="J93" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E94" s="1">
+        <v>60</v>
+      </c>
+      <c r="F94" s="1">
+        <v>0</v>
+      </c>
+      <c r="G94" s="1">
+        <v>1</v>
+      </c>
+      <c r="H94" s="1">
+        <v>0</v>
+      </c>
+      <c r="I94" s="1">
+        <v>0</v>
+      </c>
+      <c r="J94" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="E95" s="1">
+        <v>60</v>
+      </c>
+      <c r="F95" s="1">
+        <v>0</v>
+      </c>
+      <c r="G95" s="1">
+        <v>1</v>
+      </c>
+      <c r="H95" s="1">
+        <v>0</v>
+      </c>
+      <c r="I95" s="1">
+        <v>0</v>
+      </c>
+      <c r="J95" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="E96" s="1">
+        <v>60</v>
+      </c>
+      <c r="F96" s="1">
+        <v>0</v>
+      </c>
+      <c r="G96" s="1">
+        <v>1</v>
+      </c>
+      <c r="H96" s="1">
+        <v>0</v>
+      </c>
+      <c r="I96" s="1">
+        <v>0</v>
+      </c>
+      <c r="J96" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="E97" s="1">
+        <v>60</v>
+      </c>
+      <c r="F97" s="1">
+        <v>0</v>
+      </c>
+      <c r="G97" s="1">
+        <v>1</v>
+      </c>
+      <c r="H97" s="1">
+        <v>0</v>
+      </c>
+      <c r="I97" s="1">
+        <v>0</v>
+      </c>
+      <c r="J97" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="E98" s="1">
+        <v>60</v>
+      </c>
+      <c r="F98" s="1">
+        <v>0</v>
+      </c>
+      <c r="G98" s="1">
+        <v>1</v>
+      </c>
+      <c r="H98" s="1">
+        <v>0</v>
+      </c>
+      <c r="I98" s="1">
+        <v>0</v>
+      </c>
+      <c r="J98" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E99" s="1">
+        <v>10</v>
+      </c>
+      <c r="F99" s="1">
+        <v>1</v>
+      </c>
+      <c r="G99" s="1">
+        <v>0</v>
+      </c>
+      <c r="H99" s="1">
+        <v>0</v>
+      </c>
+      <c r="I99" s="1">
+        <v>0</v>
+      </c>
+      <c r="J99" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="E100" s="1">
+        <v>20</v>
+      </c>
+      <c r="F100" s="1">
+        <v>0</v>
+      </c>
+      <c r="G100" s="1">
+        <v>1</v>
+      </c>
+      <c r="H100" s="1">
+        <v>0</v>
+      </c>
+      <c r="I100" s="1">
+        <v>0</v>
+      </c>
+      <c r="J100" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="E101" s="1">
+        <v>20</v>
+      </c>
+      <c r="F101" s="1">
+        <v>0</v>
+      </c>
+      <c r="G101" s="1">
+        <v>1</v>
+      </c>
+      <c r="H101" s="1">
+        <v>0</v>
+      </c>
+      <c r="I101" s="1">
+        <v>0</v>
+      </c>
+      <c r="J101" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="E102" s="1">
+        <v>20</v>
+      </c>
+      <c r="F102" s="1">
+        <v>0</v>
+      </c>
+      <c r="G102" s="1">
+        <v>1</v>
+      </c>
+      <c r="H102" s="1">
+        <v>0</v>
+      </c>
+      <c r="I102" s="1">
+        <v>0</v>
+      </c>
+      <c r="J102" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E103" s="1">
+        <v>20</v>
+      </c>
+      <c r="F103" s="1">
+        <v>0</v>
+      </c>
+      <c r="G103" s="1">
+        <v>1</v>
+      </c>
+      <c r="H103" s="1">
+        <v>0</v>
+      </c>
+      <c r="I103" s="1">
+        <v>0</v>
+      </c>
+      <c r="J103" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E104" s="1">
+        <v>60</v>
+      </c>
+      <c r="F104" s="1">
+        <v>0</v>
+      </c>
+      <c r="G104" s="1">
+        <v>1</v>
+      </c>
+      <c r="H104" s="1">
+        <v>0</v>
+      </c>
+      <c r="I104" s="1">
+        <v>0</v>
+      </c>
+      <c r="J104" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="E105" s="1">
+        <v>60</v>
+      </c>
+      <c r="F105" s="1">
+        <v>0</v>
+      </c>
+      <c r="G105" s="1">
+        <v>1</v>
+      </c>
+      <c r="H105" s="1">
+        <v>0</v>
+      </c>
+      <c r="I105" s="1">
+        <v>0</v>
+      </c>
+      <c r="J105" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="E106" s="1">
+        <v>60</v>
+      </c>
+      <c r="F106" s="1">
+        <v>0</v>
+      </c>
+      <c r="G106" s="1">
+        <v>1</v>
+      </c>
+      <c r="H106" s="1">
+        <v>0</v>
+      </c>
+      <c r="I106" s="1">
+        <v>0</v>
+      </c>
+      <c r="J106" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="E107" s="1">
+        <v>60</v>
+      </c>
+      <c r="F107" s="1">
+        <v>0</v>
+      </c>
+      <c r="G107" s="1">
+        <v>1</v>
+      </c>
+      <c r="H107" s="1">
+        <v>0</v>
+      </c>
+      <c r="I107" s="1">
+        <v>0</v>
+      </c>
+      <c r="J107" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="E108" s="1">
+        <v>60</v>
+      </c>
+      <c r="F108" s="1">
+        <v>1</v>
+      </c>
+      <c r="G108" s="1">
+        <v>0</v>
+      </c>
+      <c r="H108" s="1">
+        <v>0</v>
+      </c>
+      <c r="I108" s="1">
+        <v>0</v>
+      </c>
+      <c r="J108" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="E109" s="1">
+        <v>60</v>
+      </c>
+      <c r="F109" s="1">
+        <v>1</v>
+      </c>
+      <c r="G109" s="1">
+        <v>0</v>
+      </c>
+      <c r="H109" s="1">
+        <v>0</v>
+      </c>
+      <c r="I109" s="1">
+        <v>0</v>
+      </c>
+      <c r="J109" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="E110" s="1">
+        <v>60</v>
+      </c>
+      <c r="F110" s="1">
+        <v>0</v>
+      </c>
+      <c r="G110" s="1">
+        <v>1</v>
+      </c>
+      <c r="H110" s="1">
+        <v>0</v>
+      </c>
+      <c r="I110" s="1">
+        <v>0</v>
+      </c>
+      <c r="J110" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="E111" s="1">
+        <v>60</v>
+      </c>
+      <c r="F111" s="1">
+        <v>0</v>
+      </c>
+      <c r="G111" s="1">
+        <v>1</v>
+      </c>
+      <c r="H111" s="1">
+        <v>0</v>
+      </c>
+      <c r="I111" s="1">
+        <v>0</v>
+      </c>
+      <c r="J111" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="E112" s="1">
+        <v>60</v>
+      </c>
+      <c r="F112" s="1">
+        <v>0</v>
+      </c>
+      <c r="G112" s="1">
+        <v>1</v>
+      </c>
+      <c r="H112" s="1">
+        <v>0</v>
+      </c>
+      <c r="I112" s="1">
+        <v>0</v>
+      </c>
+      <c r="J112" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4386,6 +5184,24 @@
     <hyperlink ref="C87" r:id="rId2" location="keyWordSearch=Python" xr:uid="{C957A0A2-4937-4544-AAC7-D50CCE88DC33}"/>
     <hyperlink ref="C89" r:id="rId3" xr:uid="{777C39A2-DAF8-46B2-8961-BBC4FC7074E3}"/>
     <hyperlink ref="C15" r:id="rId4" xr:uid="{30D7857E-D9CA-405D-B2B3-C50A75A14DE0}"/>
+    <hyperlink ref="C27" r:id="rId5" xr:uid="{FAC5B476-386C-43B7-9987-BCC4794DF698}"/>
+    <hyperlink ref="C95" r:id="rId6" xr:uid="{D2B0CCA6-7F87-4220-BCA3-A74D9A015863}"/>
+    <hyperlink ref="C97" r:id="rId7" xr:uid="{117FE5FC-D45D-45F3-8D15-09053A7B0414}"/>
+    <hyperlink ref="C98" r:id="rId8" xr:uid="{2E77C05A-081E-4E23-807B-6B1CBD7F56B1}"/>
+    <hyperlink ref="C99" r:id="rId9" location="browsing" display="https://jobs.chronicle.com/jobs/california/#browsing" xr:uid="{B11EF975-0722-4344-8DEF-E5D9D1FC04C7}"/>
+    <hyperlink ref="C100" r:id="rId10" xr:uid="{4A0D3936-9906-4BB7-97E7-7C264A468F17}"/>
+    <hyperlink ref="C101" r:id="rId11" xr:uid="{2A7075E0-2B48-4318-B4B5-869E01A91110}"/>
+    <hyperlink ref="C102" r:id="rId12" xr:uid="{35A31DF8-3022-42B4-80DA-D978A2C678E2}"/>
+    <hyperlink ref="C103" r:id="rId13" xr:uid="{B08BA2CA-8444-4D95-9F2B-EDCAA231C7DD}"/>
+    <hyperlink ref="C104" r:id="rId14" xr:uid="{0245D0CA-AC22-4319-A553-02962B3C0620}"/>
+    <hyperlink ref="C105" r:id="rId15" xr:uid="{BE95FA8F-C358-4FA1-8B54-9CCB0A47550F}"/>
+    <hyperlink ref="C106" r:id="rId16" xr:uid="{DD0ADE1A-0A65-4987-BC6B-697DC8716FEB}"/>
+    <hyperlink ref="C107" r:id="rId17" xr:uid="{3E43AC9A-0FDC-475D-9461-FC092143DF00}"/>
+    <hyperlink ref="C108" r:id="rId18" xr:uid="{CCD48A0D-6993-47FE-932A-C6E19B8D590B}"/>
+    <hyperlink ref="C109" r:id="rId19" xr:uid="{FEEF0DBB-6C55-4D23-8473-AA1198A00B59}"/>
+    <hyperlink ref="C110" r:id="rId20" xr:uid="{7A66FC79-A98A-4933-9D5F-BED644A4A78B}"/>
+    <hyperlink ref="C111" r:id="rId21" xr:uid="{6220AB51-3946-4B1C-9DDF-D1E2251C6F4C}"/>
+    <hyperlink ref="C112" r:id="rId22" location="OpenPositions" xr:uid="{00AECD5C-D52E-4731-B117-769853204FCA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4685,7 +5501,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -4693,7 +5509,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/job_files/jobboard_info.xlsx
+++ b/job_files/jobboard_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jai\Documents\github\job_visitor\job_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEFF9AAB-1674-43A5-8DFD-C961C9F7965E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60418B12-F959-434D-926C-501742B17BF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -540,9 +540,6 @@
     <t>camris</t>
   </si>
   <si>
-    <t>https://careers-camris.icims.com/jobs/search?ss=1&amp;searchKeyword=Data</t>
-  </si>
-  <si>
     <t>CAMRIS is an international development and research firm that realizes innovative solutions to health and development challenges through high-quality, cost-effective program and research management services. With experience working in more than 80 countries, we combine our proven systems with today’s most effective, evidence-based best practices to improve the lives of people around the world.</t>
   </si>
   <si>
@@ -1182,10 +1179,6 @@
     <t>Find community jobs, environmental jobs, not-for-profit jobs and social work jobs in Melbourne, Sydney, Brisbane, Perth &amp; Adelaide. -- Austrailia based.</t>
   </si>
   <si>
-    <t>https://www.developmentaid.org/#!/jobs/search?sort=highlighted.desc,posted_date.desc&amp;public=1&amp;all=0&amp;languages=92&amp;maximumExperience=4
-https://www.developmentaid.org/#!/jobs/search?sort=highlighted.desc,posted_date.desc&amp;searchedText=Data</t>
-  </si>
-  <si>
     <t>Work for good</t>
   </si>
   <si>
@@ -1221,6 +1214,12 @@
   </si>
   <si>
     <t>ocial sector professionals who crave more information that’s both reliable and easy to use. We aim to make their jobs easier, which we believe will not only contribute to a growing movement for greater transparency and accountability within the sector, but will also lead to happier and more productive professionals.</t>
+  </si>
+  <si>
+    <t>https://careers-camris.icims.com/jobs/search?ics_geolocation=US&amp;ics_keywords=Data</t>
+  </si>
+  <si>
+    <t>https://www.developmentaid.org/#!/jobs/search?sortColumn=relevance.desc&amp;sort=highlighted.desc,relevance.desc&amp;locations=296&amp;maximumExperience=5&amp;searchedText=Data</t>
   </si>
 </sst>
 </file>
@@ -1572,8 +1571,8 @@
   <dimension ref="A1:J112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E115" sqref="E115"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1605,10 +1604,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>20</v>
@@ -1745,7 +1744,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>155</v>
@@ -1823,7 +1822,7 @@
         <v>47</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>86</v>
@@ -2001,7 +2000,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>157</v>
@@ -2015,7 +2014,7 @@
         <v>53</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>92</v>
@@ -2047,7 +2046,7 @@
         <v>124</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>93</v>
@@ -2193,7 +2192,7 @@
         <v>1</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>158</v>
@@ -2271,7 +2270,7 @@
         <v>60</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>100</v>
@@ -2300,10 +2299,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>101</v>
@@ -2335,7 +2334,7 @@
         <v>61</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>101</v>
@@ -2463,7 +2462,7 @@
         <v>65</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>104</v>
@@ -2495,7 +2494,7 @@
         <v>66</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>105</v>
@@ -2527,7 +2526,7 @@
         <v>67</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>106</v>
@@ -2783,7 +2782,7 @@
         <v>75</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>25</v>
@@ -2815,7 +2814,7 @@
         <v>76</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>114</v>
@@ -2876,7 +2875,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>29</v>
@@ -2897,7 +2896,7 @@
         <v>1</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>161</v>
@@ -2911,7 +2910,7 @@
         <v>78</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>117</v>
@@ -3006,8 +3005,8 @@
       <c r="B45" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>369</v>
+      <c r="C45" s="5" t="s">
+        <v>381</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>129</v>
@@ -3071,7 +3070,7 @@
         <v>126</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>131</v>
@@ -3134,11 +3133,11 @@
       <c r="B49" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="E49" s="1">
         <v>40</v>
@@ -3164,13 +3163,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="E50" s="1">
         <v>40</v>
@@ -3196,13 +3195,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="E51" s="1">
         <v>40</v>
@@ -3228,13 +3227,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>194</v>
       </c>
       <c r="E52" s="1">
         <v>40</v>
@@ -3260,13 +3259,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>198</v>
       </c>
       <c r="E53" s="1">
         <v>40</v>
@@ -3281,10 +3280,10 @@
         <v>1</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -3295,10 +3294,10 @@
         <v>58</v>
       </c>
       <c r="C54" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>203</v>
       </c>
       <c r="E54" s="1">
         <v>10</v>
@@ -3324,13 +3323,13 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>206</v>
       </c>
       <c r="E55" s="1">
         <v>40</v>
@@ -3356,13 +3355,13 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="D56" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E56" s="1">
         <v>40</v>
@@ -3388,13 +3387,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>212</v>
       </c>
       <c r="E57" s="1">
         <v>40</v>
@@ -3420,13 +3419,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="D58" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="E58" s="1">
         <v>60</v>
@@ -3452,13 +3451,13 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="D59" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="E59" s="1">
         <v>40</v>
@@ -3484,13 +3483,13 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="D60" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>221</v>
       </c>
       <c r="E60" s="1">
         <v>15</v>
@@ -3516,13 +3515,13 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>223</v>
       </c>
       <c r="E61" s="1">
         <v>15</v>
@@ -3537,7 +3536,7 @@
         <v>1</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J61" s="1">
         <v>0</v>
@@ -3548,13 +3547,13 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>226</v>
-      </c>
       <c r="D62" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E62" s="1">
         <v>10</v>
@@ -3580,13 +3579,13 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>228</v>
       </c>
       <c r="E63" s="1">
         <v>10</v>
@@ -3612,13 +3611,13 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="D64" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>232</v>
       </c>
       <c r="E64" s="1">
         <v>10</v>
@@ -3644,13 +3643,13 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>234</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>235</v>
       </c>
       <c r="E65" s="1">
         <v>40</v>
@@ -3676,13 +3675,13 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="D66" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>238</v>
       </c>
       <c r="E66" s="1">
         <v>40</v>
@@ -3708,13 +3707,13 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>241</v>
-      </c>
       <c r="D67" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E67" s="1">
         <v>60</v>
@@ -3740,13 +3739,13 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="D68" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="E68" s="1">
         <v>40</v>
@@ -3761,10 +3760,10 @@
         <v>1</v>
       </c>
       <c r="I68" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="J68" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="J68" s="1" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
@@ -3772,13 +3771,13 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E69" s="1">
         <v>40</v>
@@ -3804,13 +3803,13 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D70" s="1" t="s">
         <v>255</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>256</v>
       </c>
       <c r="E70" s="1">
         <v>40</v>
@@ -3836,13 +3835,13 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="D71" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>260</v>
       </c>
       <c r="E71" s="1">
         <v>40</v>
@@ -3868,13 +3867,13 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="D72" s="1" t="s">
         <v>262</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>263</v>
       </c>
       <c r="E72" s="1">
         <v>10</v>
@@ -3900,13 +3899,13 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="D73" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>266</v>
       </c>
       <c r="E73" s="1">
         <v>10</v>
@@ -3932,13 +3931,13 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="D74" s="1" t="s">
         <v>268</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>269</v>
       </c>
       <c r="E74" s="1">
         <v>10</v>
@@ -3964,13 +3963,13 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D75" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>273</v>
       </c>
       <c r="E75" s="1">
         <v>60</v>
@@ -3996,13 +3995,13 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D76" s="1" t="s">
         <v>275</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>276</v>
       </c>
       <c r="E76" s="1">
         <v>60</v>
@@ -4028,13 +4027,13 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D77" s="1" t="s">
         <v>278</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>279</v>
       </c>
       <c r="E77" s="1">
         <v>60</v>
@@ -4060,13 +4059,13 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C78" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D78" s="1" t="s">
         <v>280</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>281</v>
       </c>
       <c r="E78" s="1">
         <v>60</v>
@@ -4092,13 +4091,13 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D79" s="1" t="s">
         <v>284</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>285</v>
       </c>
       <c r="E79" s="1">
         <v>60</v>
@@ -4124,13 +4123,13 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="D80" s="1" t="s">
         <v>287</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>288</v>
       </c>
       <c r="E80" s="1">
         <v>60</v>
@@ -4156,13 +4155,13 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D81" s="1" t="s">
         <v>290</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>291</v>
       </c>
       <c r="E81" s="1">
         <v>60</v>
@@ -4188,13 +4187,13 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="D82" s="1" t="s">
         <v>293</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>294</v>
       </c>
       <c r="E82" s="1">
         <v>60</v>
@@ -4220,13 +4219,13 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D83" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>297</v>
       </c>
       <c r="E83" s="1">
         <v>60</v>
@@ -4252,13 +4251,13 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C84" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D84" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>299</v>
       </c>
       <c r="E84" s="1">
         <v>60</v>
@@ -4284,13 +4283,13 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D85" s="1" t="s">
         <v>301</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>302</v>
       </c>
       <c r="E85" s="1">
         <v>60</v>
@@ -4316,13 +4315,13 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C86" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="D86" s="1" t="s">
         <v>304</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>305</v>
       </c>
       <c r="E86" s="1">
         <v>60</v>
@@ -4348,13 +4347,13 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="D87" s="1" t="s">
         <v>307</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>308</v>
       </c>
       <c r="E87" s="1">
         <v>60</v>
@@ -4380,13 +4379,13 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="C88" s="1" t="s">
-        <v>310</v>
-      </c>
       <c r="D88" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E88" s="1">
         <v>60</v>
@@ -4412,13 +4411,13 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C89" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="C89" s="1" t="s">
-        <v>312</v>
-      </c>
       <c r="D89" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E89" s="1">
         <v>60</v>
@@ -4444,13 +4443,13 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="C90" s="1" t="s">
-        <v>314</v>
-      </c>
       <c r="D90" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E90" s="1">
         <v>60</v>
@@ -4476,13 +4475,13 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="C91" s="1" t="s">
-        <v>316</v>
-      </c>
       <c r="D91" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E91" s="1">
         <v>60</v>
@@ -4508,13 +4507,13 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D92" s="1" t="s">
         <v>317</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>318</v>
       </c>
       <c r="E92" s="1">
         <v>60</v>
@@ -4540,13 +4539,13 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="C93" s="1" t="s">
-        <v>321</v>
-      </c>
       <c r="D93" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E93" s="1">
         <v>60</v>
@@ -4572,13 +4571,13 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E94" s="1">
         <v>60</v>
@@ -4604,13 +4603,13 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="D95" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>329</v>
       </c>
       <c r="E95" s="1">
         <v>60</v>
@@ -4636,13 +4635,13 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C96" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="D96" s="1" t="s">
         <v>331</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>332</v>
       </c>
       <c r="E96" s="1">
         <v>60</v>
@@ -4668,13 +4667,13 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C97" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="D97" s="1" t="s">
         <v>334</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>335</v>
       </c>
       <c r="E97" s="1">
         <v>60</v>
@@ -4700,13 +4699,13 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D98" s="1" t="s">
         <v>336</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>337</v>
       </c>
       <c r="E98" s="1">
         <v>60</v>
@@ -4732,13 +4731,13 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="D99" s="1" t="s">
         <v>339</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>340</v>
       </c>
       <c r="E99" s="1">
         <v>10</v>
@@ -4764,13 +4763,13 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C100" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="C100" s="5" t="s">
+      <c r="D100" s="1" t="s">
         <v>343</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>344</v>
       </c>
       <c r="E100" s="1">
         <v>20</v>
@@ -4796,13 +4795,13 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C101" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="C101" s="5" t="s">
+      <c r="D101" s="1" t="s">
         <v>346</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>347</v>
       </c>
       <c r="E101" s="1">
         <v>20</v>
@@ -4828,13 +4827,13 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C102" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="C102" s="5" t="s">
+      <c r="D102" s="1" t="s">
         <v>349</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>350</v>
       </c>
       <c r="E102" s="1">
         <v>20</v>
@@ -4860,13 +4859,13 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C103" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="C103" s="5" t="s">
-        <v>352</v>
-      </c>
       <c r="D103" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E103" s="1">
         <v>20</v>
@@ -4892,13 +4891,13 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C104" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="C104" s="5" t="s">
-        <v>354</v>
-      </c>
       <c r="D104" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E104" s="1">
         <v>60</v>
@@ -4924,13 +4923,13 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="D105" s="1" t="s">
         <v>358</v>
-      </c>
-      <c r="C105" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>359</v>
       </c>
       <c r="E105" s="1">
         <v>60</v>
@@ -4956,13 +4955,13 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C106" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="C106" s="5" t="s">
+      <c r="D106" s="1" t="s">
         <v>361</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>362</v>
       </c>
       <c r="E106" s="1">
         <v>60</v>
@@ -4988,13 +4987,13 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C107" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="C107" s="5" t="s">
+      <c r="D107" s="1" t="s">
         <v>364</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>365</v>
       </c>
       <c r="E107" s="1">
         <v>60</v>
@@ -5020,13 +5019,13 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C108" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="C108" s="5" t="s">
+      <c r="D108" s="1" t="s">
         <v>367</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>368</v>
       </c>
       <c r="E108" s="1">
         <v>60</v>
@@ -5052,13 +5051,13 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="D109" s="1" t="s">
         <v>370</v>
-      </c>
-      <c r="C109" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>372</v>
       </c>
       <c r="E109" s="1">
         <v>60</v>
@@ -5084,13 +5083,13 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="D110" s="1" t="s">
         <v>373</v>
-      </c>
-      <c r="C110" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>375</v>
       </c>
       <c r="E110" s="1">
         <v>60</v>
@@ -5116,13 +5115,13 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="D111" s="1" t="s">
         <v>376</v>
-      </c>
-      <c r="C111" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>378</v>
       </c>
       <c r="E111" s="1">
         <v>60</v>
@@ -5148,13 +5147,13 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="D112" s="1" t="s">
         <v>379</v>
-      </c>
-      <c r="C112" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>381</v>
       </c>
       <c r="E112" s="1">
         <v>60</v>
@@ -5202,6 +5201,8 @@
     <hyperlink ref="C110" r:id="rId20" xr:uid="{7A66FC79-A98A-4933-9D5F-BED644A4A78B}"/>
     <hyperlink ref="C111" r:id="rId21" xr:uid="{6220AB51-3946-4B1C-9DDF-D1E2251C6F4C}"/>
     <hyperlink ref="C112" r:id="rId22" location="OpenPositions" xr:uid="{00AECD5C-D52E-4731-B117-769853204FCA}"/>
+    <hyperlink ref="C49" r:id="rId23" xr:uid="{3EE30076-F981-4F5F-A406-1B2833838B14}"/>
+    <hyperlink ref="C45" r:id="rId24" location="!/jobs/search?sortColumn=relevance.desc&amp;sort=highlighted.desc,relevance.desc&amp;locations=296&amp;maximumExperience=5&amp;searchedText=Data" xr:uid="{53DE8CFB-B8CB-4CBF-9382-E35FF6DA498C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5355,7 +5356,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -5501,7 +5502,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -5509,7 +5510,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/job_files/jobboard_info.xlsx
+++ b/job_files/jobboard_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jai\Documents\github\job_visitor\job_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60418B12-F959-434D-926C-501742B17BF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE879DA5-82AB-44CA-B97C-36FD48EB77BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="388">
   <si>
     <t>name</t>
   </si>
@@ -793,10 +793,6 @@
   <si>
     <t>https://www.dai.com/careers/search.html?keywords=Evaluation&amp;location=&amp;functional_area=
 https://www.dai.com/careers/search.html?keywords=Data&amp;location=United+States</t>
-  </si>
-  <si>
-    <t>https://reliefweb.int/jobs?advanced-search=%28CC6868.CC20971%29_%28E258.E259%29_%28C246.C192.C178.C245%29
-https://reliefweb.int/jobs?advanced-search=%28CC6868%29_%28E258.E259%29_%28C245%29</t>
   </si>
   <si>
     <t>https://www.idealist.org/en/jobs?functions=DATA_EVALUATION_ANALYSIS&amp;functions=RESEARCH&amp;q=&amp;searchMode=true</t>
@@ -1213,13 +1209,34 @@
     <t>https://www.verasolutions.org/careers/#OpenPositions</t>
   </si>
   <si>
-    <t>ocial sector professionals who crave more information that’s both reliable and easy to use. We aim to make their jobs easier, which we believe will not only contribute to a growing movement for greater transparency and accountability within the sector, but will also lead to happier and more productive professionals.</t>
-  </si>
-  <si>
     <t>https://careers-camris.icims.com/jobs/search?ics_geolocation=US&amp;ics_keywords=Data</t>
   </si>
   <si>
     <t>https://www.developmentaid.org/#!/jobs/search?sortColumn=relevance.desc&amp;sort=highlighted.desc,relevance.desc&amp;locations=296&amp;maximumExperience=5&amp;searchedText=Data</t>
+  </si>
+  <si>
+    <t>Stars Behavioral Health Group</t>
+  </si>
+  <si>
+    <t>https://www.starsinc.com/careers/job-openings/</t>
+  </si>
+  <si>
+    <t>social sector professionals who crave more information that’s both reliable and easy to use. We aim to make their jobs easier, which we believe will not only contribute to a growing movement for greater transparency and accountability within the sector, but will also lead to happier and more productive professionals.</t>
+  </si>
+  <si>
+    <t>Stars Behavioral Health Group delivers quality mental health and social services throughout California with proven results. Life can be tough sometimes, whether you're a child, teen, adult or simply a family member trying to support someone who is hurting.</t>
+  </si>
+  <si>
+    <t>Edtech</t>
+  </si>
+  <si>
+    <t>https://edtec.com/join-our-team/</t>
+  </si>
+  <si>
+    <t>EdTec is a growing national social enterprise committed to improving public education by supporting charter schools with business, operations, and performance services. EdTec is headquartered in the San Francisco Bay Area (Emeryville), with offices in Los Angeles, Nashville, Atlanta, and Denver, and additional staff in New York and New Mexico.</t>
+  </si>
+  <si>
+    <t>https://reliefweb.int/jobs?advanced-search=%28TY263%29_%28CC6868%29_%28E258%29_%28C245%29</t>
   </si>
 </sst>
 </file>
@@ -1568,11 +1585,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J112"/>
+  <dimension ref="A1:J114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C46" sqref="C46"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I99" sqref="I99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2046,7 +2063,7 @@
         <v>124</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>93</v>
@@ -2494,7 +2511,7 @@
         <v>66</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>105</v>
@@ -3006,7 +3023,7 @@
         <v>121</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>129</v>
@@ -3069,8 +3086,8 @@
       <c r="B47" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>249</v>
+      <c r="C47" s="5" t="s">
+        <v>387</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>131</v>
@@ -3134,7 +3151,7 @@
         <v>167</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>168</v>
@@ -3553,7 +3570,7 @@
         <v>225</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E62" s="1">
         <v>10</v>
@@ -3771,13 +3788,13 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E69" s="1">
         <v>40</v>
@@ -3803,13 +3820,13 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D70" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>255</v>
       </c>
       <c r="E70" s="1">
         <v>40</v>
@@ -3835,13 +3852,13 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="D71" s="1" t="s">
         <v>258</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>259</v>
       </c>
       <c r="E71" s="1">
         <v>40</v>
@@ -3867,13 +3884,13 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="D72" s="1" t="s">
         <v>261</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>262</v>
       </c>
       <c r="E72" s="1">
         <v>10</v>
@@ -3899,13 +3916,13 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="D73" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>265</v>
       </c>
       <c r="E73" s="1">
         <v>10</v>
@@ -3931,13 +3948,13 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="D74" s="1" t="s">
         <v>267</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>268</v>
       </c>
       <c r="E74" s="1">
         <v>10</v>
@@ -3963,13 +3980,13 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D75" s="1" t="s">
         <v>271</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>272</v>
       </c>
       <c r="E75" s="1">
         <v>60</v>
@@ -3995,13 +4012,13 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D76" s="1" t="s">
         <v>274</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>275</v>
       </c>
       <c r="E76" s="1">
         <v>60</v>
@@ -4027,13 +4044,13 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D77" s="1" t="s">
         <v>277</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>278</v>
       </c>
       <c r="E77" s="1">
         <v>60</v>
@@ -4059,13 +4076,13 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C78" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D78" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>280</v>
       </c>
       <c r="E78" s="1">
         <v>60</v>
@@ -4091,13 +4108,13 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D79" s="1" t="s">
         <v>283</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>284</v>
       </c>
       <c r="E79" s="1">
         <v>60</v>
@@ -4123,13 +4140,13 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="D80" s="1" t="s">
         <v>286</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>287</v>
       </c>
       <c r="E80" s="1">
         <v>60</v>
@@ -4155,13 +4172,13 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D81" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>290</v>
       </c>
       <c r="E81" s="1">
         <v>60</v>
@@ -4187,13 +4204,13 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="D82" s="1" t="s">
         <v>292</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>293</v>
       </c>
       <c r="E82" s="1">
         <v>60</v>
@@ -4219,13 +4236,13 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D83" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>296</v>
       </c>
       <c r="E83" s="1">
         <v>60</v>
@@ -4254,10 +4271,10 @@
         <v>195</v>
       </c>
       <c r="C84" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D84" s="1" t="s">
         <v>297</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>298</v>
       </c>
       <c r="E84" s="1">
         <v>60</v>
@@ -4283,13 +4300,13 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D85" s="1" t="s">
         <v>300</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>301</v>
       </c>
       <c r="E85" s="1">
         <v>60</v>
@@ -4315,13 +4332,13 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C86" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="D86" s="1" t="s">
         <v>303</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>304</v>
       </c>
       <c r="E86" s="1">
         <v>60</v>
@@ -4347,13 +4364,13 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="D87" s="1" t="s">
         <v>306</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>307</v>
       </c>
       <c r="E87" s="1">
         <v>60</v>
@@ -4379,13 +4396,13 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="C88" s="1" t="s">
-        <v>309</v>
-      </c>
       <c r="D88" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E88" s="1">
         <v>60</v>
@@ -4411,13 +4428,13 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C89" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="C89" s="1" t="s">
-        <v>311</v>
-      </c>
       <c r="D89" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E89" s="1">
         <v>60</v>
@@ -4443,13 +4460,13 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="C90" s="1" t="s">
-        <v>313</v>
-      </c>
       <c r="D90" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E90" s="1">
         <v>60</v>
@@ -4475,13 +4492,13 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="C91" s="1" t="s">
-        <v>315</v>
-      </c>
       <c r="D91" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E91" s="1">
         <v>60</v>
@@ -4507,13 +4524,13 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D92" s="1" t="s">
         <v>316</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>317</v>
       </c>
       <c r="E92" s="1">
         <v>60</v>
@@ -4539,13 +4556,13 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="C93" s="1" t="s">
-        <v>320</v>
-      </c>
       <c r="D93" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E93" s="1">
         <v>60</v>
@@ -4571,13 +4588,13 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E94" s="1">
         <v>60</v>
@@ -4603,13 +4620,13 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="D95" s="1" t="s">
         <v>327</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>328</v>
       </c>
       <c r="E95" s="1">
         <v>60</v>
@@ -4635,13 +4652,13 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C96" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="D96" s="1" t="s">
         <v>330</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>331</v>
       </c>
       <c r="E96" s="1">
         <v>60</v>
@@ -4667,13 +4684,13 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C97" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="D97" s="1" t="s">
         <v>333</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>334</v>
       </c>
       <c r="E97" s="1">
         <v>60</v>
@@ -4699,13 +4716,13 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D98" s="1" t="s">
         <v>335</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>336</v>
       </c>
       <c r="E98" s="1">
         <v>60</v>
@@ -4731,13 +4748,13 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="D99" s="1" t="s">
         <v>338</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>339</v>
       </c>
       <c r="E99" s="1">
         <v>10</v>
@@ -4763,13 +4780,13 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C100" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="C100" s="5" t="s">
+      <c r="D100" s="1" t="s">
         <v>342</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>343</v>
       </c>
       <c r="E100" s="1">
         <v>20</v>
@@ -4795,13 +4812,13 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C101" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="C101" s="5" t="s">
+      <c r="D101" s="1" t="s">
         <v>345</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>346</v>
       </c>
       <c r="E101" s="1">
         <v>20</v>
@@ -4827,13 +4844,13 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C102" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="C102" s="5" t="s">
+      <c r="D102" s="1" t="s">
         <v>348</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>349</v>
       </c>
       <c r="E102" s="1">
         <v>20</v>
@@ -4859,13 +4876,13 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C103" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="C103" s="5" t="s">
-        <v>351</v>
-      </c>
       <c r="D103" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E103" s="1">
         <v>20</v>
@@ -4891,13 +4908,13 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C104" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="C104" s="5" t="s">
-        <v>353</v>
-      </c>
       <c r="D104" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E104" s="1">
         <v>60</v>
@@ -4923,13 +4940,13 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="D105" s="1" t="s">
         <v>357</v>
-      </c>
-      <c r="C105" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>358</v>
       </c>
       <c r="E105" s="1">
         <v>60</v>
@@ -4955,13 +4972,13 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C106" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="C106" s="5" t="s">
+      <c r="D106" s="1" t="s">
         <v>360</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>361</v>
       </c>
       <c r="E106" s="1">
         <v>60</v>
@@ -4987,13 +5004,13 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C107" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="C107" s="5" t="s">
+      <c r="D107" s="1" t="s">
         <v>363</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>364</v>
       </c>
       <c r="E107" s="1">
         <v>60</v>
@@ -5019,13 +5036,13 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C108" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="C108" s="5" t="s">
+      <c r="D108" s="1" t="s">
         <v>366</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>367</v>
       </c>
       <c r="E108" s="1">
         <v>60</v>
@@ -5051,13 +5068,13 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C109" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="C109" s="5" t="s">
+      <c r="D109" s="1" t="s">
         <v>369</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>370</v>
       </c>
       <c r="E109" s="1">
         <v>60</v>
@@ -5083,13 +5100,13 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C110" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="C110" s="5" t="s">
+      <c r="D110" s="1" t="s">
         <v>372</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>373</v>
       </c>
       <c r="E110" s="1">
         <v>60</v>
@@ -5115,13 +5132,13 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C111" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="C111" s="5" t="s">
+      <c r="D111" s="1" t="s">
         <v>375</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>376</v>
       </c>
       <c r="E111" s="1">
         <v>60</v>
@@ -5147,13 +5164,13 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C112" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="C112" s="5" t="s">
-        <v>378</v>
-      </c>
       <c r="D112" s="1" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="E112" s="1">
         <v>60</v>
@@ -5171,6 +5188,70 @@
         <v>0</v>
       </c>
       <c r="J112" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="E113" s="1">
+        <v>60</v>
+      </c>
+      <c r="F113" s="1">
+        <v>0</v>
+      </c>
+      <c r="G113" s="1">
+        <v>1</v>
+      </c>
+      <c r="H113" s="1">
+        <v>0</v>
+      </c>
+      <c r="I113" s="1">
+        <v>0</v>
+      </c>
+      <c r="J113" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="E114" s="1">
+        <v>60</v>
+      </c>
+      <c r="F114" s="1">
+        <v>0</v>
+      </c>
+      <c r="G114" s="1">
+        <v>1</v>
+      </c>
+      <c r="H114" s="1">
+        <v>0</v>
+      </c>
+      <c r="I114" s="1">
+        <v>0</v>
+      </c>
+      <c r="J114" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5203,6 +5284,8 @@
     <hyperlink ref="C112" r:id="rId22" location="OpenPositions" xr:uid="{00AECD5C-D52E-4731-B117-769853204FCA}"/>
     <hyperlink ref="C49" r:id="rId23" xr:uid="{3EE30076-F981-4F5F-A406-1B2833838B14}"/>
     <hyperlink ref="C45" r:id="rId24" location="!/jobs/search?sortColumn=relevance.desc&amp;sort=highlighted.desc,relevance.desc&amp;locations=296&amp;maximumExperience=5&amp;searchedText=Data" xr:uid="{53DE8CFB-B8CB-4CBF-9382-E35FF6DA498C}"/>
+    <hyperlink ref="C114" r:id="rId25" xr:uid="{34D14E97-9676-4F5A-A1B8-6FF4B5AA914A}"/>
+    <hyperlink ref="C47" r:id="rId26" xr:uid="{3351FD14-16F5-4909-BA16-378A62E284F8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/job_files/jobboard_info.xlsx
+++ b/job_files/jobboard_info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jai\Documents\github\job_visitor\job_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE879DA5-82AB-44CA-B97C-36FD48EB77BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC0056B-4B7D-4129-B0B5-A8D22C2B9226}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-2145" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="job_sites" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="397">
   <si>
     <t>name</t>
   </si>
@@ -123,9 +123,6 @@
     <t>http://www.vppartners.org/careers/</t>
   </si>
   <si>
-    <t>https://west.edtrust.org/who-we-are/jobs/</t>
-  </si>
-  <si>
     <t>https://bluelabs.bamboohr.com/jobs/</t>
   </si>
   <si>
@@ -190,9 +187,6 @@
   </si>
   <si>
     <t>curriculum associates</t>
-  </si>
-  <si>
-    <t>dai</t>
   </si>
   <si>
     <t>eab</t>
@@ -1237,6 +1231,41 @@
   </si>
   <si>
     <t>https://reliefweb.int/jobs?advanced-search=%28TY263%29_%28CC6868%29_%28E258%29_%28C245%29</t>
+  </si>
+  <si>
+    <t>https://west.edtrust.org/who-we-are/jobs/
+https://midwest.edtrust.org/about/jobs/?q
+https://newyork.edtrust.org/who-we-are/jobs/</t>
+  </si>
+  <si>
+    <t>Development Alternatives Incorporated</t>
+  </si>
+  <si>
+    <t>Palladium</t>
+  </si>
+  <si>
+    <t>https://thepalladiumgroup.com/joblist?search=&amp;country%5B%5D=USA</t>
+  </si>
+  <si>
+    <t>Palladium works with governments, businesses, and investors to solve the world's most pressing challenges.</t>
+  </si>
+  <si>
+    <t>Whole Whale</t>
+  </si>
+  <si>
+    <t>https://www.wholewhale.com/jobs/</t>
+  </si>
+  <si>
+    <t>Our team loves using data and tech to increase the impact of nonprofits and we are always looking for great people to whale with us</t>
+  </si>
+  <si>
+    <t>Trascend Education</t>
+  </si>
+  <si>
+    <t>https://www.transcendeducation.org/opportunities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our work with school communities and the larger ecosystem is guided by five fundamental beliefs. </t>
   </si>
 </sst>
 </file>
@@ -1295,14 +1324,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1585,11 +1611,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J114"/>
+  <dimension ref="A1:J117"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I99" sqref="I99"/>
+      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J117" sqref="J117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1609,7 +1635,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1621,22 +1647,22 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -1644,13 +1670,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E2" s="1">
         <v>6</v>
@@ -1676,13 +1702,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E3" s="1">
         <v>6</v>
@@ -1708,13 +1734,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E4" s="1">
         <v>40</v>
@@ -1740,13 +1766,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E5" s="1">
         <v>40</v>
@@ -1761,10 +1787,10 @@
         <v>1</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1772,13 +1798,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E6" s="1">
         <v>6</v>
@@ -1804,13 +1830,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E7" s="1">
         <v>40</v>
@@ -1836,13 +1862,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E8" s="1">
         <v>40</v>
@@ -1868,13 +1894,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E9" s="1">
         <v>6</v>
@@ -1900,13 +1926,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E10" s="1">
         <v>40</v>
@@ -1921,10 +1947,10 @@
         <v>1</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1932,13 +1958,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E11" s="1">
         <v>6</v>
@@ -1964,13 +1990,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E12" s="1">
         <v>6</v>
@@ -1996,13 +2022,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E13" s="1">
         <v>40</v>
@@ -2017,10 +2043,10 @@
         <v>1</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -2028,13 +2054,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>53</v>
+        <v>387</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E14" s="1">
         <v>5</v>
@@ -2060,13 +2086,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E15" s="1">
         <v>6</v>
@@ -2092,13 +2118,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E16" s="1">
         <v>40</v>
@@ -2124,13 +2150,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E17" s="1">
         <v>5</v>
@@ -2156,13 +2182,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E18" s="1">
         <v>40</v>
@@ -2188,13 +2214,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>30</v>
+        <v>386</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E19" s="1">
         <v>40</v>
@@ -2209,10 +2235,10 @@
         <v>1</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -2220,13 +2246,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E20" s="1">
         <v>5</v>
@@ -2252,13 +2278,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E21" s="1">
         <v>6</v>
@@ -2284,13 +2310,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E22" s="1">
         <v>40</v>
@@ -2316,13 +2342,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E23" s="1">
         <v>5</v>
@@ -2348,13 +2374,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E24" s="1">
         <v>11</v>
@@ -2380,13 +2406,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E25" s="1">
         <v>6</v>
@@ -2412,13 +2438,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E26" s="1">
         <v>40</v>
@@ -2444,13 +2470,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E27" s="1">
         <v>6</v>
@@ -2476,13 +2502,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E28" s="1">
         <v>6</v>
@@ -2508,13 +2534,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E29" s="1">
         <v>2</v>
@@ -2540,13 +2566,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E30" s="1">
         <v>5</v>
@@ -2572,13 +2598,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E31" s="1">
         <v>40</v>
@@ -2593,10 +2619,10 @@
         <v>1</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -2604,13 +2630,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E32" s="1">
         <v>6</v>
@@ -2636,13 +2662,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E33" s="1">
         <v>6</v>
@@ -2668,13 +2694,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E34" s="1">
         <v>6</v>
@@ -2700,13 +2726,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E35" s="1">
         <v>6</v>
@@ -2732,13 +2758,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E36" s="1">
         <v>3</v>
@@ -2764,13 +2790,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E37" s="1">
         <v>40</v>
@@ -2796,10 +2822,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>25</v>
@@ -2817,10 +2843,10 @@
         <v>1</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -2828,13 +2854,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E39" s="1">
         <v>40</v>
@@ -2860,13 +2886,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E40" s="1">
         <v>40</v>
@@ -2878,13 +2904,13 @@
         <v>1</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -2892,13 +2918,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E41" s="1">
         <v>40</v>
@@ -2913,10 +2939,10 @@
         <v>1</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -2924,13 +2950,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E42" s="1">
         <v>40</v>
@@ -2956,13 +2982,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E43" s="1">
         <v>40</v>
@@ -2988,13 +3014,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E44" s="1">
         <v>40</v>
@@ -3020,13 +3046,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>379</v>
+        <v>119</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>377</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E45" s="1">
         <v>9</v>
@@ -3052,13 +3078,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E46" s="1">
         <v>9</v>
@@ -3084,13 +3110,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>387</v>
+        <v>124</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>385</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E47" s="1">
         <v>15</v>
@@ -3116,13 +3142,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E48" s="1">
         <v>40</v>
@@ -3148,13 +3174,13 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>378</v>
+        <v>165</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>376</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E49" s="1">
         <v>40</v>
@@ -3180,13 +3206,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E50" s="1">
         <v>40</v>
@@ -3212,13 +3238,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>173</v>
       </c>
       <c r="E51" s="1">
         <v>40</v>
@@ -3244,13 +3270,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>193</v>
       </c>
       <c r="E52" s="1">
         <v>40</v>
@@ -3276,13 +3302,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>197</v>
       </c>
       <c r="E53" s="1">
         <v>40</v>
@@ -3297,10 +3323,10 @@
         <v>1</v>
       </c>
       <c r="I53" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="J53" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -3308,13 +3334,13 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E54" s="1">
         <v>10</v>
@@ -3340,13 +3366,13 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C55" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="E55" s="1">
         <v>40</v>
@@ -3372,13 +3398,13 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E56" s="1">
         <v>40</v>
@@ -3404,13 +3430,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>211</v>
       </c>
       <c r="E57" s="1">
         <v>40</v>
@@ -3436,13 +3462,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>214</v>
       </c>
       <c r="E58" s="1">
         <v>60</v>
@@ -3468,13 +3494,13 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>217</v>
       </c>
       <c r="E59" s="1">
         <v>40</v>
@@ -3500,13 +3526,13 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>220</v>
       </c>
       <c r="E60" s="1">
         <v>15</v>
@@ -3532,13 +3558,13 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>223</v>
-      </c>
       <c r="D61" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E61" s="1">
         <v>15</v>
@@ -3553,7 +3579,7 @@
         <v>1</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J61" s="1">
         <v>0</v>
@@ -3564,13 +3590,13 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E62" s="1">
         <v>10</v>
@@ -3596,13 +3622,13 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>228</v>
-      </c>
       <c r="D63" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E63" s="1">
         <v>10</v>
@@ -3628,13 +3654,13 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>229</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>231</v>
       </c>
       <c r="E64" s="1">
         <v>10</v>
@@ -3660,13 +3686,13 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C65" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>232</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>234</v>
       </c>
       <c r="E65" s="1">
         <v>40</v>
@@ -3692,13 +3718,13 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>237</v>
       </c>
       <c r="E66" s="1">
         <v>40</v>
@@ -3724,13 +3750,13 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E67" s="1">
         <v>60</v>
@@ -3756,13 +3782,13 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D68" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>243</v>
       </c>
       <c r="E68" s="1">
         <v>40</v>
@@ -3777,10 +3803,10 @@
         <v>1</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
@@ -3788,13 +3814,13 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E69" s="1">
         <v>40</v>
@@ -3820,13 +3846,13 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C70" s="1" t="s">
-        <v>255</v>
-      </c>
       <c r="D70" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E70" s="1">
         <v>40</v>
@@ -3852,13 +3878,13 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D71" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>258</v>
       </c>
       <c r="E71" s="1">
         <v>40</v>
@@ -3884,13 +3910,13 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D72" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>261</v>
       </c>
       <c r="E72" s="1">
         <v>10</v>
@@ -3916,13 +3942,13 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D73" s="1" t="s">
         <v>262</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>264</v>
       </c>
       <c r="E73" s="1">
         <v>10</v>
@@ -3948,13 +3974,13 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D74" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>267</v>
       </c>
       <c r="E74" s="1">
         <v>10</v>
@@ -3980,13 +4006,13 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C75" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D75" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>271</v>
       </c>
       <c r="E75" s="1">
         <v>60</v>
@@ -4012,13 +4038,13 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C76" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D76" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>274</v>
       </c>
       <c r="E76" s="1">
         <v>60</v>
@@ -4044,13 +4070,13 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C77" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D77" s="1" t="s">
         <v>275</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="E77" s="1">
         <v>60</v>
@@ -4076,13 +4102,13 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E78" s="1">
         <v>60</v>
@@ -4108,13 +4134,13 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C79" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D79" s="1" t="s">
         <v>281</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>283</v>
       </c>
       <c r="E79" s="1">
         <v>60</v>
@@ -4140,13 +4166,13 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D80" s="1" t="s">
         <v>284</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>286</v>
       </c>
       <c r="E80" s="1">
         <v>60</v>
@@ -4172,13 +4198,13 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C81" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D81" s="1" t="s">
         <v>287</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>289</v>
       </c>
       <c r="E81" s="1">
         <v>60</v>
@@ -4204,13 +4230,13 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D82" s="1" t="s">
         <v>290</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>292</v>
       </c>
       <c r="E82" s="1">
         <v>60</v>
@@ -4236,13 +4262,13 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C83" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D83" s="1" t="s">
         <v>293</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>295</v>
       </c>
       <c r="E83" s="1">
         <v>60</v>
@@ -4268,13 +4294,13 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E84" s="1">
         <v>60</v>
@@ -4300,13 +4326,13 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C85" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D85" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>300</v>
       </c>
       <c r="E85" s="1">
         <v>60</v>
@@ -4332,13 +4358,13 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D86" s="1" t="s">
         <v>301</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>303</v>
       </c>
       <c r="E86" s="1">
         <v>60</v>
@@ -4364,13 +4390,13 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D87" s="1" t="s">
         <v>304</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>306</v>
       </c>
       <c r="E87" s="1">
         <v>60</v>
@@ -4396,13 +4422,13 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E88" s="1">
         <v>60</v>
@@ -4428,13 +4454,13 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E89" s="1">
         <v>60</v>
@@ -4460,13 +4486,13 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E90" s="1">
         <v>60</v>
@@ -4492,13 +4518,13 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E91" s="1">
         <v>60</v>
@@ -4524,13 +4550,13 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C92" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="C92" s="1" t="s">
-        <v>317</v>
-      </c>
       <c r="D92" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E92" s="1">
         <v>60</v>
@@ -4556,13 +4582,13 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E93" s="1">
         <v>60</v>
@@ -4588,13 +4614,13 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D94" s="1" t="s">
         <v>322</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>324</v>
       </c>
       <c r="E94" s="1">
         <v>60</v>
@@ -4620,13 +4646,13 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D95" s="1" t="s">
         <v>325</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>327</v>
       </c>
       <c r="E95" s="1">
         <v>60</v>
@@ -4652,13 +4678,13 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D96" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>330</v>
       </c>
       <c r="E96" s="1">
         <v>60</v>
@@ -4684,13 +4710,13 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D97" s="1" t="s">
         <v>331</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>333</v>
       </c>
       <c r="E97" s="1">
         <v>60</v>
@@ -4716,13 +4742,13 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C98" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="C98" s="1" t="s">
-        <v>336</v>
-      </c>
       <c r="D98" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E98" s="1">
         <v>60</v>
@@ -4743,18 +4769,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C99" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="C99" s="4" t="s">
-        <v>339</v>
-      </c>
       <c r="D99" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E99" s="1">
         <v>10</v>
@@ -4780,13 +4806,13 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D100" s="1" t="s">
         <v>340</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>342</v>
       </c>
       <c r="E100" s="1">
         <v>20</v>
@@ -4812,13 +4838,13 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D101" s="1" t="s">
         <v>343</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>345</v>
       </c>
       <c r="E101" s="1">
         <v>20</v>
@@ -4844,13 +4870,13 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="D102" s="1" t="s">
         <v>346</v>
-      </c>
-      <c r="C102" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>348</v>
       </c>
       <c r="E102" s="1">
         <v>20</v>
@@ -4876,13 +4902,13 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>350</v>
+        <v>347</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>348</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E103" s="1">
         <v>20</v>
@@ -4908,13 +4934,13 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="C104" s="5" t="s">
-        <v>352</v>
+        <v>349</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>350</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E104" s="1">
         <v>60</v>
@@ -4940,13 +4966,13 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="C105" s="5" t="s">
         <v>354</v>
       </c>
+      <c r="C105" s="1" t="s">
+        <v>352</v>
+      </c>
       <c r="D105" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E105" s="1">
         <v>60</v>
@@ -4972,13 +4998,13 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D106" s="1" t="s">
         <v>358</v>
-      </c>
-      <c r="C106" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>360</v>
       </c>
       <c r="E106" s="1">
         <v>60</v>
@@ -5004,13 +5030,13 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="D107" s="1" t="s">
         <v>361</v>
-      </c>
-      <c r="C107" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>363</v>
       </c>
       <c r="E107" s="1">
         <v>60</v>
@@ -5036,13 +5062,13 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D108" s="1" t="s">
         <v>364</v>
-      </c>
-      <c r="C108" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>366</v>
       </c>
       <c r="E108" s="1">
         <v>60</v>
@@ -5068,13 +5094,13 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D109" s="1" t="s">
         <v>367</v>
-      </c>
-      <c r="C109" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>369</v>
       </c>
       <c r="E109" s="1">
         <v>60</v>
@@ -5100,13 +5126,13 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="D110" s="1" t="s">
         <v>370</v>
-      </c>
-      <c r="C110" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>372</v>
       </c>
       <c r="E110" s="1">
         <v>60</v>
@@ -5132,13 +5158,13 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="D111" s="1" t="s">
         <v>373</v>
-      </c>
-      <c r="C111" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>375</v>
       </c>
       <c r="E111" s="1">
         <v>60</v>
@@ -5164,13 +5190,13 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="C112" s="5" t="s">
-        <v>377</v>
+        <v>374</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>375</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E112" s="1">
         <v>60</v>
@@ -5196,13 +5222,13 @@
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C113" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D113" s="1" t="s">
         <v>381</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>383</v>
       </c>
       <c r="E113" s="1">
         <v>60</v>
@@ -5228,13 +5254,13 @@
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D114" s="1" t="s">
         <v>384</v>
-      </c>
-      <c r="C114" s="5" t="s">
-        <v>385</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>386</v>
       </c>
       <c r="E114" s="1">
         <v>60</v>
@@ -5252,6 +5278,102 @@
         <v>0</v>
       </c>
       <c r="J114" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="E115" s="1">
+        <v>60</v>
+      </c>
+      <c r="F115" s="1">
+        <v>0</v>
+      </c>
+      <c r="G115" s="1">
+        <v>1</v>
+      </c>
+      <c r="H115" s="1">
+        <v>0</v>
+      </c>
+      <c r="I115" s="1">
+        <v>0</v>
+      </c>
+      <c r="J115" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="E116" s="1">
+        <v>20</v>
+      </c>
+      <c r="F116" s="1">
+        <v>0</v>
+      </c>
+      <c r="G116" s="1">
+        <v>1</v>
+      </c>
+      <c r="H116" s="1">
+        <v>0</v>
+      </c>
+      <c r="I116" s="1">
+        <v>0</v>
+      </c>
+      <c r="J116" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="E117" s="1">
+        <v>20</v>
+      </c>
+      <c r="F117" s="1">
+        <v>0</v>
+      </c>
+      <c r="G117" s="1">
+        <v>1</v>
+      </c>
+      <c r="H117" s="1">
+        <v>0</v>
+      </c>
+      <c r="I117" s="1">
+        <v>0</v>
+      </c>
+      <c r="J117" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5286,6 +5408,9 @@
     <hyperlink ref="C45" r:id="rId24" location="!/jobs/search?sortColumn=relevance.desc&amp;sort=highlighted.desc,relevance.desc&amp;locations=296&amp;maximumExperience=5&amp;searchedText=Data" xr:uid="{53DE8CFB-B8CB-4CBF-9382-E35FF6DA498C}"/>
     <hyperlink ref="C114" r:id="rId25" xr:uid="{34D14E97-9676-4F5A-A1B8-6FF4B5AA914A}"/>
     <hyperlink ref="C47" r:id="rId26" xr:uid="{3351FD14-16F5-4909-BA16-378A62E284F8}"/>
+    <hyperlink ref="C115" r:id="rId27" xr:uid="{2AFC29DC-C74A-4D2A-B9B7-AA51DD0A14A6}"/>
+    <hyperlink ref="C116" r:id="rId28" xr:uid="{5D392C2F-3619-4B93-9175-9E0C5417E598}"/>
+    <hyperlink ref="C117" r:id="rId29" xr:uid="{1290FA2A-61BB-4856-85D9-51056189E4C7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5306,10 +5431,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -5317,7 +5442,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -5325,7 +5450,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -5341,7 +5466,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -5364,10 +5489,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -5375,7 +5500,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -5383,7 +5508,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -5391,7 +5516,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -5399,7 +5524,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -5407,7 +5532,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -5415,7 +5540,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -5423,7 +5548,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -5431,7 +5556,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -5439,7 +5564,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -5447,7 +5572,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -5470,10 +5595,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -5481,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -5489,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -5497,7 +5622,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -5505,7 +5630,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -5513,7 +5638,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -5521,7 +5646,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -5537,7 +5662,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -5545,7 +5670,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -5553,7 +5678,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -5561,7 +5686,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -5577,7 +5702,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -5585,7 +5710,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -5593,7 +5718,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
